--- a/03.指标管理/权益/指标定义表-权益类V1.5.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -3710,277 +3710,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3997,42 +3748,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4042,48 +3769,15 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4091,12 +3785,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4124,50 +3812,362 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4874,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
@@ -4934,13 +4934,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="146" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9"/>
@@ -4956,9 +4956,9 @@
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -4976,9 +4976,9 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -4998,9 +4998,9 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
@@ -5020,9 +5020,9 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -5042,9 +5042,9 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="160"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -5062,9 +5062,9 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="160"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="159" t="s">
+      <c r="A8" s="147"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="146" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="9"/>
@@ -5082,9 +5082,9 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -5102,9 +5102,9 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
@@ -5122,9 +5122,9 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="22" t="s">
@@ -5140,9 +5140,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="22" t="s">
@@ -5158,9 +5158,9 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="44" t="s">
@@ -5178,9 +5178,9 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="22" t="s">
@@ -5199,9 +5199,9 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="22" t="s">
@@ -5217,9 +5217,9 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="94" t="s">
@@ -5237,9 +5237,9 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="161"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="22" t="s">
@@ -5255,9 +5255,9 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="159" t="s">
+      <c r="A18" s="147"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="146" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="9"/>
@@ -5275,9 +5275,9 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
@@ -5293,9 +5293,9 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="148"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="46" t="s">
@@ -5311,9 +5311,9 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="160"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="168" t="s">
+      <c r="A21" s="147"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="158" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="9"/>
@@ -5333,9 +5333,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="160"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="169"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="159"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="46" t="s">
@@ -5351,9 +5351,9 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="160"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
@@ -5371,9 +5371,9 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="160"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="110" t="s">
+      <c r="A24" s="147"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="149" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="9"/>
@@ -5391,9 +5391,9 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="160"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="150"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
@@ -5409,9 +5409,9 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="160"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="150"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
@@ -5427,9 +5427,9 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="160"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="150"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
@@ -5445,9 +5445,9 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="160"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="111"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="150"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
@@ -5463,9 +5463,9 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="160"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
@@ -5481,9 +5481,9 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="161"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="112"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="151"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
@@ -5499,10 +5499,10 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="146" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="49" t="s">
@@ -5525,8 +5525,8 @@
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="160"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
@@ -5547,8 +5547,8 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="111"/>
-      <c r="B33" s="160"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="49" t="s">
         <v>45</v>
       </c>
@@ -5569,8 +5569,8 @@
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="160"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="12" t="s">
         <v>376</v>
       </c>
@@ -5591,8 +5591,8 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="49" t="s">
         <v>48</v>
       </c>
@@ -5613,8 +5613,8 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="49" t="s">
         <v>50</v>
       </c>
@@ -5635,11 +5635,11 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="159" t="s">
+      <c r="A37" s="150"/>
+      <c r="B37" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="149" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="9"/>
@@ -5657,9 +5657,9 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="150"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
@@ -5677,9 +5677,9 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
-      <c r="B39" s="160"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="150"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="151"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
@@ -5697,9 +5697,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="165" t="s">
+      <c r="A40" s="150"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="155" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="9"/>
@@ -5717,9 +5717,9 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="111"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="166"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="156"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="22" t="s">
@@ -5733,9 +5733,9 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="166"/>
+      <c r="A42" s="150"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="156"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="22" t="s">
@@ -5749,9 +5749,9 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="111"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="166"/>
+      <c r="A43" s="150"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="156"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="22" t="s">
@@ -5765,9 +5765,9 @@
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="160"/>
-      <c r="C44" s="166"/>
+      <c r="A44" s="150"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="22" t="s">
@@ -5781,9 +5781,9 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="166"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="22" t="s">
@@ -5797,9 +5797,9 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="167"/>
+      <c r="A46" s="150"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="22" t="s">
@@ -5813,9 +5813,9 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" s="63" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="160"/>
-      <c r="C47" s="146" t="s">
+      <c r="A47" s="150"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="161" t="s">
         <v>459</v>
       </c>
       <c r="D47" s="46"/>
@@ -5835,9 +5835,9 @@
       <c r="L47" s="46"/>
     </row>
     <row r="48" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="147"/>
+      <c r="A48" s="150"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="162"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47" t="s">
@@ -5855,9 +5855,9 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="111"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="148"/>
+      <c r="A49" s="150"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="47" t="s">
@@ -5875,11 +5875,11 @@
       <c r="L49" s="46"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="141" t="s">
+      <c r="A50" s="150"/>
+      <c r="B50" s="167" t="s">
         <v>506</v>
       </c>
-      <c r="C50" s="164" t="s">
+      <c r="C50" s="152" t="s">
         <v>507</v>
       </c>
       <c r="D50" s="9"/>
@@ -5901,9 +5901,9 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="143"/>
+      <c r="A51" s="150"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="153"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="16" t="s">
@@ -5923,9 +5923,9 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="144"/>
+      <c r="A52" s="150"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="154"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="16" t="s">
@@ -5945,9 +5945,9 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="142" t="s">
+      <c r="A53" s="150"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="168" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="9"/>
@@ -5967,9 +5967,9 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="143"/>
+      <c r="A54" s="150"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="153"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="16" t="s">
@@ -5987,9 +5987,9 @@
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="143"/>
+      <c r="A55" s="150"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="153"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="16" t="s">
@@ -6007,9 +6007,9 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="144"/>
+      <c r="A56" s="150"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="154"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="16" t="s">
@@ -6029,8 +6029,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="112"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="16" t="s">
         <v>72</v>
       </c>
@@ -6053,13 +6053,13 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="142" t="s">
+      <c r="B58" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="171" t="s">
         <v>484</v>
       </c>
       <c r="D58" s="9"/>
@@ -6079,9 +6079,9 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="143"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="154"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="172"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
@@ -6097,9 +6097,9 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="143"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="154"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="172"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="22" t="s">
@@ -6117,9 +6117,9 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="143"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="154"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="172"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
@@ -6135,9 +6135,9 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="143"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="155"/>
+      <c r="A62" s="153"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="173"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="s">
@@ -6151,9 +6151,9 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="143"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="156" t="s">
+      <c r="A63" s="153"/>
+      <c r="B63" s="153"/>
+      <c r="C63" s="179" t="s">
         <v>377</v>
       </c>
       <c r="D63" s="9"/>
@@ -6169,9 +6169,9 @@
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="143"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="157"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="180"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="12" t="s">
@@ -6189,9 +6189,9 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="143"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="157"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="180"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="12" t="s">
@@ -6209,9 +6209,9 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="143"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="157"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="180"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="12" t="s">
@@ -6229,9 +6229,9 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="143"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="158"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="153"/>
+      <c r="C67" s="181"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="54" t="s">
@@ -6249,9 +6249,9 @@
       <c r="L67" s="46"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="143"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="140" t="s">
+      <c r="A68" s="153"/>
+      <c r="B68" s="153"/>
+      <c r="C68" s="174" t="s">
         <v>485</v>
       </c>
       <c r="D68" s="9"/>
@@ -6271,9 +6271,9 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="143"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="112"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="151"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
@@ -6289,9 +6289,9 @@
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="143"/>
-      <c r="B70" s="143"/>
-      <c r="C70" s="104" t="s">
+      <c r="A70" s="153"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="175" t="s">
         <v>519</v>
       </c>
       <c r="D70" s="9"/>
@@ -6307,9 +6307,9 @@
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="143"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="106"/>
+      <c r="A71" s="153"/>
+      <c r="B71" s="153"/>
+      <c r="C71" s="176"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="47" t="s">
@@ -6327,9 +6327,9 @@
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="143"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="123" t="s">
+      <c r="A72" s="153"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="177" t="s">
         <v>86</v>
       </c>
       <c r="D72" s="9"/>
@@ -6347,9 +6347,9 @@
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="143"/>
-      <c r="B73" s="143"/>
-      <c r="C73" s="125"/>
+      <c r="A73" s="153"/>
+      <c r="B73" s="153"/>
+      <c r="C73" s="178"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="s">
@@ -6363,9 +6363,9 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="143"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="123" t="s">
+      <c r="A74" s="153"/>
+      <c r="B74" s="153"/>
+      <c r="C74" s="177" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="9"/>
@@ -6381,9 +6381,9 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="143"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="125"/>
+      <c r="A75" s="153"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="178"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
@@ -6397,8 +6397,8 @@
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="143"/>
-      <c r="B76" s="143"/>
+      <c r="A76" s="153"/>
+      <c r="B76" s="153"/>
       <c r="C76" s="83" t="s">
         <v>647</v>
       </c>
@@ -6417,9 +6417,9 @@
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="143"/>
-      <c r="B77" s="143"/>
-      <c r="C77" s="110" t="s">
+      <c r="A77" s="153"/>
+      <c r="B77" s="153"/>
+      <c r="C77" s="149" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="9"/>
@@ -6437,9 +6437,9 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="143"/>
-      <c r="B78" s="143"/>
-      <c r="C78" s="112"/>
+      <c r="A78" s="153"/>
+      <c r="B78" s="153"/>
+      <c r="C78" s="151"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
@@ -6455,8 +6455,8 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="143"/>
-      <c r="B79" s="143"/>
+      <c r="A79" s="153"/>
+      <c r="B79" s="153"/>
       <c r="C79" s="9" t="s">
         <v>67</v>
       </c>
@@ -6475,9 +6475,9 @@
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="143"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="149" t="s">
+      <c r="A80" s="153"/>
+      <c r="B80" s="153"/>
+      <c r="C80" s="182" t="s">
         <v>660</v>
       </c>
       <c r="D80" s="9"/>
@@ -6493,9 +6493,9 @@
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" s="93" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="143"/>
-      <c r="B81" s="143"/>
-      <c r="C81" s="150"/>
+      <c r="A81" s="153"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="183"/>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
       <c r="F81" s="92" t="s">
@@ -6513,9 +6513,9 @@
       <c r="L81" s="56"/>
     </row>
     <row r="82" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="143"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="140" t="s">
+      <c r="A82" s="153"/>
+      <c r="B82" s="153"/>
+      <c r="C82" s="174" t="s">
         <v>486</v>
       </c>
       <c r="D82" s="9"/>
@@ -6533,9 +6533,9 @@
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="143"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="112"/>
+      <c r="A83" s="153"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="151"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="s">
@@ -6549,9 +6549,9 @@
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="143"/>
-      <c r="B84" s="143"/>
-      <c r="C84" s="151" t="s">
+      <c r="A84" s="153"/>
+      <c r="B84" s="153"/>
+      <c r="C84" s="184" t="s">
         <v>385</v>
       </c>
       <c r="D84" s="9"/>
@@ -6567,9 +6567,9 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="143"/>
-      <c r="B85" s="144"/>
-      <c r="C85" s="152"/>
+      <c r="A85" s="153"/>
+      <c r="B85" s="154"/>
+      <c r="C85" s="185"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9" t="s">
@@ -6583,11 +6583,11 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="143"/>
-      <c r="B86" s="142" t="s">
+      <c r="A86" s="153"/>
+      <c r="B86" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="140" t="s">
+      <c r="C86" s="174" t="s">
         <v>487</v>
       </c>
       <c r="D86" s="9"/>
@@ -6605,9 +6605,9 @@
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="143"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="141"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="167"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="46" t="s">
@@ -6623,9 +6623,9 @@
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="143"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="111"/>
+      <c r="A88" s="153"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="150"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="47" t="s">
@@ -6643,9 +6643,9 @@
       <c r="L88" s="12"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="143"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="142" t="s">
+      <c r="A89" s="153"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="168" t="s">
         <v>98</v>
       </c>
       <c r="D89" s="9"/>
@@ -6661,9 +6661,9 @@
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="143"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
+      <c r="A90" s="153"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="153"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
@@ -6677,9 +6677,9 @@
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="143"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="143"/>
+      <c r="A91" s="153"/>
+      <c r="B91" s="153"/>
+      <c r="C91" s="153"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20" t="s">
@@ -6693,9 +6693,9 @@
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="143"/>
-      <c r="B92" s="143"/>
-      <c r="C92" s="144"/>
+      <c r="A92" s="153"/>
+      <c r="B92" s="153"/>
+      <c r="C92" s="154"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
@@ -6715,9 +6715,9 @@
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="143"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="145" t="s">
+      <c r="A93" s="153"/>
+      <c r="B93" s="153"/>
+      <c r="C93" s="186" t="s">
         <v>489</v>
       </c>
       <c r="D93" s="9"/>
@@ -6733,9 +6733,9 @@
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="143"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="143"/>
+      <c r="A94" s="153"/>
+      <c r="B94" s="153"/>
+      <c r="C94" s="153"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="s">
@@ -6749,9 +6749,9 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="143"/>
-      <c r="B95" s="143"/>
-      <c r="C95" s="143"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="153"/>
+      <c r="C95" s="153"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20" t="s">
@@ -6765,9 +6765,9 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="143"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="144"/>
+      <c r="A96" s="153"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="154"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="s">
@@ -6785,9 +6785,9 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="143"/>
-      <c r="B97" s="143"/>
-      <c r="C97" s="123" t="s">
+      <c r="A97" s="153"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="177" t="s">
         <v>391</v>
       </c>
       <c r="D97" s="9"/>
@@ -6807,9 +6807,9 @@
       </c>
     </row>
     <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="143"/>
-      <c r="B98" s="143"/>
-      <c r="C98" s="124"/>
+      <c r="A98" s="153"/>
+      <c r="B98" s="153"/>
+      <c r="C98" s="187"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="s">
@@ -6823,9 +6823,9 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="143"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="124"/>
+      <c r="A99" s="153"/>
+      <c r="B99" s="153"/>
+      <c r="C99" s="187"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9" t="s">
@@ -6839,9 +6839,9 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="143"/>
-      <c r="B100" s="143"/>
-      <c r="C100" s="124"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="187"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9" t="s">
@@ -6857,9 +6857,9 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="143"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="124"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="153"/>
+      <c r="C101" s="187"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
@@ -6873,9 +6873,9 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="143"/>
-      <c r="B102" s="143"/>
-      <c r="C102" s="124"/>
+      <c r="A102" s="153"/>
+      <c r="B102" s="153"/>
+      <c r="C102" s="187"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
@@ -6889,9 +6889,9 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="143"/>
-      <c r="B103" s="143"/>
-      <c r="C103" s="124"/>
+      <c r="A103" s="153"/>
+      <c r="B103" s="153"/>
+      <c r="C103" s="187"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
@@ -6905,9 +6905,9 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="143"/>
-      <c r="B104" s="143"/>
-      <c r="C104" s="125"/>
+      <c r="A104" s="153"/>
+      <c r="B104" s="153"/>
+      <c r="C104" s="178"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
@@ -6921,9 +6921,9 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="143"/>
-      <c r="B105" s="143"/>
-      <c r="C105" s="146" t="s">
+      <c r="A105" s="153"/>
+      <c r="B105" s="153"/>
+      <c r="C105" s="161" t="s">
         <v>447</v>
       </c>
       <c r="D105" s="9"/>
@@ -6939,9 +6939,9 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="143"/>
-      <c r="B106" s="143"/>
-      <c r="C106" s="147"/>
+      <c r="A106" s="153"/>
+      <c r="B106" s="153"/>
+      <c r="C106" s="162"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="46" t="s">
@@ -6955,9 +6955,9 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="143"/>
-      <c r="B107" s="143"/>
-      <c r="C107" s="147"/>
+      <c r="A107" s="153"/>
+      <c r="B107" s="153"/>
+      <c r="C107" s="162"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="46" t="s">
@@ -6975,9 +6975,9 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="143"/>
-      <c r="B108" s="143"/>
-      <c r="C108" s="148"/>
+      <c r="A108" s="153"/>
+      <c r="B108" s="153"/>
+      <c r="C108" s="163"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="46" t="s">
@@ -6995,9 +6995,9 @@
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="143"/>
-      <c r="B109" s="143"/>
-      <c r="C109" s="146" t="s">
+      <c r="A109" s="153"/>
+      <c r="B109" s="153"/>
+      <c r="C109" s="161" t="s">
         <v>650</v>
       </c>
       <c r="D109" s="9"/>
@@ -7013,9 +7013,9 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="143"/>
-      <c r="B110" s="143"/>
-      <c r="C110" s="147"/>
+      <c r="A110" s="153"/>
+      <c r="B110" s="153"/>
+      <c r="C110" s="162"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="46" t="s">
@@ -7029,9 +7029,9 @@
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="143"/>
-      <c r="B111" s="143"/>
-      <c r="C111" s="147"/>
+      <c r="A111" s="153"/>
+      <c r="B111" s="153"/>
+      <c r="C111" s="162"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="46" t="s">
@@ -7049,9 +7049,9 @@
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="143"/>
-      <c r="B112" s="143"/>
-      <c r="C112" s="148"/>
+      <c r="A112" s="153"/>
+      <c r="B112" s="153"/>
+      <c r="C112" s="163"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="46" t="s">
@@ -7069,8 +7069,8 @@
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="143"/>
-      <c r="B113" s="143"/>
+      <c r="A113" s="153"/>
+      <c r="B113" s="153"/>
       <c r="C113" s="9" t="s">
         <v>110</v>
       </c>
@@ -7089,9 +7089,9 @@
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="143"/>
-      <c r="B114" s="143"/>
-      <c r="C114" s="142" t="s">
+      <c r="A114" s="153"/>
+      <c r="B114" s="153"/>
+      <c r="C114" s="168" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="9"/>
@@ -7111,9 +7111,9 @@
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="143"/>
-      <c r="B115" s="143"/>
-      <c r="C115" s="143"/>
+      <c r="A115" s="153"/>
+      <c r="B115" s="153"/>
+      <c r="C115" s="153"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="22" t="s">
@@ -7129,9 +7129,9 @@
       <c r="L115" s="45"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="143"/>
-      <c r="B116" s="143"/>
-      <c r="C116" s="144"/>
+      <c r="A116" s="153"/>
+      <c r="B116" s="153"/>
+      <c r="C116" s="154"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
@@ -7147,9 +7147,9 @@
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="143"/>
-      <c r="B117" s="143"/>
-      <c r="C117" s="104" t="s">
+      <c r="A117" s="153"/>
+      <c r="B117" s="153"/>
+      <c r="C117" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D117" s="9"/>
@@ -7165,9 +7165,9 @@
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="143"/>
-      <c r="B118" s="143"/>
-      <c r="C118" s="116"/>
+      <c r="A118" s="153"/>
+      <c r="B118" s="153"/>
+      <c r="C118" s="206"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
@@ -7183,9 +7183,9 @@
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="143"/>
-      <c r="B119" s="143"/>
-      <c r="C119" s="117"/>
+      <c r="A119" s="153"/>
+      <c r="B119" s="153"/>
+      <c r="C119" s="207"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9" t="s">
@@ -7199,9 +7199,9 @@
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="143"/>
-      <c r="B120" s="143"/>
-      <c r="C120" s="118" t="s">
+      <c r="A120" s="153"/>
+      <c r="B120" s="153"/>
+      <c r="C120" s="208" t="s">
         <v>119</v>
       </c>
       <c r="D120" s="9"/>
@@ -7217,9 +7217,9 @@
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="143"/>
-      <c r="B121" s="143"/>
-      <c r="C121" s="119"/>
+      <c r="A121" s="153"/>
+      <c r="B121" s="153"/>
+      <c r="C121" s="209"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9" t="s">
@@ -7235,9 +7235,9 @@
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="143"/>
-      <c r="B122" s="143"/>
-      <c r="C122" s="120"/>
+      <c r="A122" s="153"/>
+      <c r="B122" s="153"/>
+      <c r="C122" s="210"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9" t="s">
@@ -7251,8 +7251,8 @@
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="143"/>
-      <c r="B123" s="144"/>
+      <c r="A123" s="153"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="90" t="s">
         <v>121</v>
       </c>
@@ -7271,11 +7271,11 @@
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="143"/>
-      <c r="B124" s="142" t="s">
+      <c r="A124" s="153"/>
+      <c r="B124" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="121" t="s">
+      <c r="C124" s="211" t="s">
         <v>396</v>
       </c>
       <c r="D124" s="9"/>
@@ -7295,9 +7295,9 @@
       </c>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="143"/>
-      <c r="B125" s="143"/>
-      <c r="C125" s="122"/>
+      <c r="A125" s="153"/>
+      <c r="B125" s="153"/>
+      <c r="C125" s="212"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="s">
@@ -7313,8 +7313,8 @@
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="143"/>
-      <c r="B126" s="143"/>
+      <c r="A126" s="153"/>
+      <c r="B126" s="153"/>
       <c r="C126" s="71" t="s">
         <v>124</v>
       </c>
@@ -7333,8 +7333,8 @@
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="143"/>
-      <c r="B127" s="143"/>
+      <c r="A127" s="153"/>
+      <c r="B127" s="153"/>
       <c r="C127" s="68" t="s">
         <v>490</v>
       </c>
@@ -7353,8 +7353,8 @@
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="143"/>
-      <c r="B128" s="143"/>
+      <c r="A128" s="153"/>
+      <c r="B128" s="153"/>
       <c r="C128" s="68" t="s">
         <v>491</v>
       </c>
@@ -7375,8 +7375,8 @@
       </c>
     </row>
     <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="143"/>
-      <c r="B129" s="143"/>
+      <c r="A129" s="153"/>
+      <c r="B129" s="153"/>
       <c r="C129" s="68" t="s">
         <v>492</v>
       </c>
@@ -7395,9 +7395,9 @@
       <c r="L129" s="12"/>
     </row>
     <row r="130" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="143"/>
-      <c r="B130" s="143"/>
-      <c r="C130" s="123" t="s">
+      <c r="A130" s="153"/>
+      <c r="B130" s="153"/>
+      <c r="C130" s="177" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="9"/>
@@ -7417,9 +7417,9 @@
       </c>
     </row>
     <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="143"/>
-      <c r="B131" s="143"/>
-      <c r="C131" s="124"/>
+      <c r="A131" s="153"/>
+      <c r="B131" s="153"/>
+      <c r="C131" s="187"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="54" t="s">
@@ -7435,9 +7435,9 @@
       <c r="L131" s="22"/>
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="143"/>
-      <c r="B132" s="143"/>
-      <c r="C132" s="124"/>
+      <c r="A132" s="153"/>
+      <c r="B132" s="153"/>
+      <c r="C132" s="187"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="54" t="s">
@@ -7453,9 +7453,9 @@
       </c>
     </row>
     <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="143"/>
-      <c r="B133" s="143"/>
-      <c r="C133" s="124"/>
+      <c r="A133" s="153"/>
+      <c r="B133" s="153"/>
+      <c r="C133" s="187"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="54" t="s">
@@ -7473,9 +7473,9 @@
       </c>
     </row>
     <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="143"/>
-      <c r="B134" s="143"/>
-      <c r="C134" s="124"/>
+      <c r="A134" s="153"/>
+      <c r="B134" s="153"/>
+      <c r="C134" s="187"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="47" t="s">
@@ -7489,9 +7489,9 @@
       <c r="L134" s="47"/>
     </row>
     <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="143"/>
-      <c r="B135" s="143"/>
-      <c r="C135" s="125"/>
+      <c r="A135" s="153"/>
+      <c r="B135" s="153"/>
+      <c r="C135" s="178"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
       <c r="F135" s="47" t="s">
@@ -7507,9 +7507,9 @@
       <c r="L135" s="9"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="143"/>
-      <c r="B136" s="143"/>
-      <c r="C136" s="104" t="s">
+      <c r="A136" s="153"/>
+      <c r="B136" s="153"/>
+      <c r="C136" s="175" t="s">
         <v>461</v>
       </c>
       <c r="D136" s="9"/>
@@ -7527,9 +7527,9 @@
       <c r="L136" s="9"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="143"/>
-      <c r="B137" s="143"/>
-      <c r="C137" s="116"/>
+      <c r="A137" s="153"/>
+      <c r="B137" s="153"/>
+      <c r="C137" s="206"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9" t="s">
@@ -7545,9 +7545,9 @@
       <c r="L137" s="9"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="143"/>
-      <c r="B138" s="143"/>
-      <c r="C138" s="116"/>
+      <c r="A138" s="153"/>
+      <c r="B138" s="153"/>
+      <c r="C138" s="206"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="46" t="s">
@@ -7563,9 +7563,9 @@
       <c r="L138" s="9"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="143"/>
-      <c r="B139" s="143"/>
-      <c r="C139" s="116"/>
+      <c r="A139" s="153"/>
+      <c r="B139" s="153"/>
+      <c r="C139" s="206"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9" t="s">
@@ -7581,9 +7581,9 @@
       <c r="L139" s="9"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="143"/>
-      <c r="B140" s="143"/>
-      <c r="C140" s="116"/>
+      <c r="A140" s="153"/>
+      <c r="B140" s="153"/>
+      <c r="C140" s="206"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="46" t="s">
@@ -7599,9 +7599,9 @@
       <c r="L140" s="9"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="143"/>
-      <c r="B141" s="143"/>
-      <c r="C141" s="116"/>
+      <c r="A141" s="153"/>
+      <c r="B141" s="153"/>
+      <c r="C141" s="206"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="46" t="s">
@@ -7617,9 +7617,9 @@
       <c r="L141" s="9"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="143"/>
-      <c r="B142" s="143"/>
-      <c r="C142" s="116"/>
+      <c r="A142" s="153"/>
+      <c r="B142" s="153"/>
+      <c r="C142" s="206"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="46" t="s">
@@ -7635,9 +7635,9 @@
       <c r="L142" s="9"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="143"/>
-      <c r="B143" s="143"/>
-      <c r="C143" s="117"/>
+      <c r="A143" s="153"/>
+      <c r="B143" s="153"/>
+      <c r="C143" s="207"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -7649,8 +7649,8 @@
       <c r="L143" s="9"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="143"/>
-      <c r="B144" s="143"/>
+      <c r="A144" s="153"/>
+      <c r="B144" s="153"/>
       <c r="C144" s="9" t="s">
         <v>110</v>
       </c>
@@ -7669,9 +7669,9 @@
       <c r="L144" s="9"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="143"/>
-      <c r="B145" s="143"/>
-      <c r="C145" s="104" t="s">
+      <c r="A145" s="153"/>
+      <c r="B145" s="153"/>
+      <c r="C145" s="175" t="s">
         <v>542</v>
       </c>
       <c r="D145" s="9"/>
@@ -7689,9 +7689,9 @@
       <c r="L145" s="58"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A146" s="143"/>
-      <c r="B146" s="143"/>
-      <c r="C146" s="105"/>
+      <c r="A146" s="153"/>
+      <c r="B146" s="153"/>
+      <c r="C146" s="202"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="47" t="s">
@@ -7707,9 +7707,9 @@
       <c r="L146" s="9"/>
     </row>
     <row r="147" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A147" s="143"/>
-      <c r="B147" s="143"/>
-      <c r="C147" s="106"/>
+      <c r="A147" s="153"/>
+      <c r="B147" s="153"/>
+      <c r="C147" s="176"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="61" t="s">
@@ -7729,9 +7729,9 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="143"/>
-      <c r="B148" s="143"/>
-      <c r="C148" s="104" t="s">
+      <c r="A148" s="153"/>
+      <c r="B148" s="153"/>
+      <c r="C148" s="175" t="s">
         <v>544</v>
       </c>
       <c r="D148" s="9"/>
@@ -7751,9 +7751,9 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A149" s="143"/>
-      <c r="B149" s="143"/>
-      <c r="C149" s="105"/>
+      <c r="A149" s="153"/>
+      <c r="B149" s="153"/>
+      <c r="C149" s="202"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9" t="s">
@@ -7769,9 +7769,9 @@
       <c r="L149" s="9"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A150" s="143"/>
-      <c r="B150" s="143"/>
-      <c r="C150" s="106"/>
+      <c r="A150" s="153"/>
+      <c r="B150" s="153"/>
+      <c r="C150" s="176"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="46" t="s">
@@ -7789,9 +7789,9 @@
       <c r="L150" s="9"/>
     </row>
     <row r="151" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="143"/>
-      <c r="B151" s="143"/>
-      <c r="C151" s="107" t="s">
+      <c r="A151" s="153"/>
+      <c r="B151" s="153"/>
+      <c r="C151" s="203" t="s">
         <v>433</v>
       </c>
       <c r="D151" s="9"/>
@@ -7811,9 +7811,9 @@
       </c>
     </row>
     <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="143"/>
-      <c r="B152" s="143"/>
-      <c r="C152" s="108"/>
+      <c r="A152" s="153"/>
+      <c r="B152" s="153"/>
+      <c r="C152" s="204"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9" t="s">
@@ -7829,9 +7829,9 @@
       <c r="L152" s="9"/>
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="143"/>
-      <c r="B153" s="143"/>
-      <c r="C153" s="109"/>
+      <c r="A153" s="153"/>
+      <c r="B153" s="153"/>
+      <c r="C153" s="205"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9" t="s">
@@ -7849,8 +7849,8 @@
       <c r="L153" s="9"/>
     </row>
     <row r="154" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="143"/>
-      <c r="B154" s="111" t="s">
+      <c r="A154" s="153"/>
+      <c r="B154" s="150" t="s">
         <v>137</v>
       </c>
       <c r="C154" s="50" t="s">
@@ -7873,8 +7873,8 @@
       <c r="L154" s="9"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A155" s="143"/>
-      <c r="B155" s="111"/>
+      <c r="A155" s="153"/>
+      <c r="B155" s="150"/>
       <c r="C155" s="9" t="s">
         <v>140</v>
       </c>
@@ -7895,8 +7895,8 @@
       <c r="L155" s="9"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A156" s="143"/>
-      <c r="B156" s="111"/>
+      <c r="A156" s="153"/>
+      <c r="B156" s="150"/>
       <c r="C156" s="9" t="s">
         <v>110</v>
       </c>
@@ -7915,8 +7915,8 @@
       <c r="L156" s="9"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A157" s="143"/>
-      <c r="B157" s="111"/>
+      <c r="A157" s="153"/>
+      <c r="B157" s="150"/>
       <c r="C157" s="9" t="s">
         <v>144</v>
       </c>
@@ -7937,8 +7937,8 @@
       <c r="L157" s="9"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" s="143"/>
-      <c r="B158" s="112"/>
+      <c r="A158" s="153"/>
+      <c r="B158" s="151"/>
       <c r="C158" s="9" t="s">
         <v>147</v>
       </c>
@@ -7955,11 +7955,11 @@
       <c r="L158" s="9"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A159" s="143"/>
-      <c r="B159" s="142" t="s">
+      <c r="A159" s="153"/>
+      <c r="B159" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="C159" s="110" t="s">
+      <c r="C159" s="149" t="s">
         <v>149</v>
       </c>
       <c r="D159" s="9"/>
@@ -7977,9 +7977,9 @@
       <c r="L159" s="9"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A160" s="143"/>
-      <c r="B160" s="143"/>
-      <c r="C160" s="111"/>
+      <c r="A160" s="153"/>
+      <c r="B160" s="153"/>
+      <c r="C160" s="150"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9" t="s">
@@ -7995,9 +7995,9 @@
       <c r="L160" s="9"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="143"/>
-      <c r="B161" s="143"/>
-      <c r="C161" s="112"/>
+      <c r="A161" s="153"/>
+      <c r="B161" s="153"/>
+      <c r="C161" s="151"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9" t="s">
@@ -8013,8 +8013,8 @@
       <c r="L161" s="9"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A162" s="144"/>
-      <c r="B162" s="144"/>
+      <c r="A162" s="154"/>
+      <c r="B162" s="154"/>
       <c r="C162" s="9" t="s">
         <v>153</v>
       </c>
@@ -8033,16 +8033,16 @@
       <c r="L162" s="9"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" s="162" t="s">
+      <c r="A163" s="169" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="126" t="s">
+      <c r="B163" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="C163" s="113" t="s">
+      <c r="C163" s="193" t="s">
         <v>156</v>
       </c>
-      <c r="D163" s="126" t="s">
+      <c r="D163" s="164" t="s">
         <v>157</v>
       </c>
       <c r="F163" s="16" t="s">
@@ -8059,10 +8059,10 @@
       <c r="L163" s="15"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A164" s="163"/>
-      <c r="B164" s="128"/>
-      <c r="C164" s="114"/>
-      <c r="D164" s="127"/>
+      <c r="A164" s="170"/>
+      <c r="B164" s="165"/>
+      <c r="C164" s="194"/>
+      <c r="D164" s="166"/>
       <c r="F164" s="16" t="s">
         <v>158</v>
       </c>
@@ -8077,9 +8077,9 @@
       <c r="L164" s="15"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A165" s="163"/>
-      <c r="B165" s="128"/>
-      <c r="C165" s="114"/>
+      <c r="A165" s="170"/>
+      <c r="B165" s="165"/>
+      <c r="C165" s="194"/>
       <c r="D165" s="24" t="s">
         <v>159</v>
       </c>
@@ -8095,10 +8095,10 @@
       <c r="L165" s="15"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A166" s="163"/>
-      <c r="B166" s="128"/>
-      <c r="C166" s="114"/>
-      <c r="D166" s="126" t="s">
+      <c r="A166" s="170"/>
+      <c r="B166" s="165"/>
+      <c r="C166" s="194"/>
+      <c r="D166" s="164" t="s">
         <v>160</v>
       </c>
       <c r="F166" s="16" t="s">
@@ -8113,10 +8113,10 @@
       <c r="L166" s="15"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A167" s="163"/>
-      <c r="B167" s="128"/>
-      <c r="C167" s="114"/>
-      <c r="D167" s="128"/>
+      <c r="A167" s="170"/>
+      <c r="B167" s="165"/>
+      <c r="C167" s="194"/>
+      <c r="D167" s="165"/>
       <c r="F167" s="16" t="s">
         <v>162</v>
       </c>
@@ -8129,10 +8129,10 @@
       <c r="L167" s="15"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" s="163"/>
-      <c r="B168" s="128"/>
-      <c r="C168" s="114"/>
-      <c r="D168" s="127"/>
+      <c r="A168" s="170"/>
+      <c r="B168" s="165"/>
+      <c r="C168" s="194"/>
+      <c r="D168" s="166"/>
       <c r="F168" s="16" t="s">
         <v>163</v>
       </c>
@@ -8145,10 +8145,10 @@
       <c r="L168" s="15"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A169" s="163"/>
-      <c r="B169" s="128"/>
-      <c r="C169" s="114"/>
-      <c r="D169" s="126" t="s">
+      <c r="A169" s="170"/>
+      <c r="B169" s="165"/>
+      <c r="C169" s="194"/>
+      <c r="D169" s="164" t="s">
         <v>164</v>
       </c>
       <c r="F169" s="81" t="s">
@@ -8163,10 +8163,10 @@
       <c r="L169" s="15"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A170" s="163"/>
-      <c r="B170" s="128"/>
-      <c r="C170" s="114"/>
-      <c r="D170" s="127"/>
+      <c r="A170" s="170"/>
+      <c r="B170" s="165"/>
+      <c r="C170" s="194"/>
+      <c r="D170" s="166"/>
       <c r="F170" s="16" t="s">
         <v>166</v>
       </c>
@@ -8179,10 +8179,10 @@
       <c r="L170" s="26"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A171" s="163"/>
-      <c r="B171" s="128"/>
-      <c r="C171" s="114"/>
-      <c r="D171" s="126" t="s">
+      <c r="A171" s="170"/>
+      <c r="B171" s="165"/>
+      <c r="C171" s="194"/>
+      <c r="D171" s="164" t="s">
         <v>167</v>
       </c>
       <c r="F171" s="16" t="s">
@@ -8197,10 +8197,10 @@
       <c r="L171" s="15"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A172" s="163"/>
-      <c r="B172" s="128"/>
-      <c r="C172" s="114"/>
-      <c r="D172" s="127"/>
+      <c r="A172" s="170"/>
+      <c r="B172" s="165"/>
+      <c r="C172" s="194"/>
+      <c r="D172" s="166"/>
       <c r="F172" s="16" t="s">
         <v>166</v>
       </c>
@@ -8215,9 +8215,9 @@
       <c r="L172" s="15"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" s="163"/>
-      <c r="B173" s="128"/>
-      <c r="C173" s="114"/>
+      <c r="A173" s="170"/>
+      <c r="B173" s="165"/>
+      <c r="C173" s="194"/>
       <c r="D173" s="82"/>
       <c r="F173" s="16" t="s">
         <v>668</v>
@@ -8229,10 +8229,10 @@
       <c r="L173" s="15"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A174" s="163"/>
-      <c r="B174" s="128"/>
-      <c r="C174" s="114"/>
-      <c r="D174" s="126" t="s">
+      <c r="A174" s="170"/>
+      <c r="B174" s="165"/>
+      <c r="C174" s="194"/>
+      <c r="D174" s="164" t="s">
         <v>170</v>
       </c>
       <c r="F174" s="16" t="s">
@@ -8245,10 +8245,10 @@
       <c r="L174" s="15"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A175" s="163"/>
-      <c r="B175" s="128"/>
-      <c r="C175" s="114"/>
-      <c r="D175" s="128"/>
+      <c r="A175" s="170"/>
+      <c r="B175" s="165"/>
+      <c r="C175" s="194"/>
+      <c r="D175" s="165"/>
       <c r="F175" s="16" t="s">
         <v>172</v>
       </c>
@@ -8259,10 +8259,10 @@
       <c r="L175" s="15"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A176" s="163"/>
-      <c r="B176" s="128"/>
-      <c r="C176" s="114"/>
-      <c r="D176" s="128"/>
+      <c r="A176" s="170"/>
+      <c r="B176" s="165"/>
+      <c r="C176" s="194"/>
+      <c r="D176" s="165"/>
       <c r="F176" s="16" t="s">
         <v>173</v>
       </c>
@@ -8273,10 +8273,10 @@
       <c r="L176" s="15"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A177" s="163"/>
-      <c r="B177" s="128"/>
-      <c r="C177" s="114"/>
-      <c r="D177" s="128"/>
+      <c r="A177" s="170"/>
+      <c r="B177" s="165"/>
+      <c r="C177" s="194"/>
+      <c r="D177" s="165"/>
       <c r="F177" s="16" t="s">
         <v>161</v>
       </c>
@@ -8287,10 +8287,10 @@
       <c r="L177" s="15"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" s="163"/>
-      <c r="B178" s="128"/>
-      <c r="C178" s="114"/>
-      <c r="D178" s="128"/>
+      <c r="A178" s="170"/>
+      <c r="B178" s="165"/>
+      <c r="C178" s="194"/>
+      <c r="D178" s="165"/>
       <c r="F178" s="16" t="s">
         <v>174</v>
       </c>
@@ -8301,10 +8301,10 @@
       <c r="L178" s="15"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A179" s="163"/>
-      <c r="B179" s="128"/>
-      <c r="C179" s="115"/>
-      <c r="D179" s="127"/>
+      <c r="A179" s="170"/>
+      <c r="B179" s="165"/>
+      <c r="C179" s="195"/>
+      <c r="D179" s="166"/>
       <c r="F179" s="16" t="s">
         <v>175</v>
       </c>
@@ -8315,12 +8315,12 @@
       <c r="L179" s="28"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A180" s="163"/>
-      <c r="B180" s="128"/>
-      <c r="C180" s="137" t="s">
+      <c r="A180" s="170"/>
+      <c r="B180" s="165"/>
+      <c r="C180" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="D180" s="126" t="s">
+      <c r="D180" s="164" t="s">
         <v>176</v>
       </c>
       <c r="F180" s="16" t="s">
@@ -8333,10 +8333,10 @@
       <c r="L180" s="15"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A181" s="163"/>
-      <c r="B181" s="128"/>
-      <c r="C181" s="138"/>
-      <c r="D181" s="128"/>
+      <c r="A181" s="170"/>
+      <c r="B181" s="165"/>
+      <c r="C181" s="191"/>
+      <c r="D181" s="165"/>
       <c r="F181" s="16" t="s">
         <v>177</v>
       </c>
@@ -8347,10 +8347,10 @@
       <c r="L181" s="15"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" s="163"/>
-      <c r="B182" s="128"/>
-      <c r="C182" s="138"/>
-      <c r="D182" s="128"/>
+      <c r="A182" s="170"/>
+      <c r="B182" s="165"/>
+      <c r="C182" s="191"/>
+      <c r="D182" s="165"/>
       <c r="F182" s="16" t="s">
         <v>178</v>
       </c>
@@ -8361,10 +8361,10 @@
       <c r="L182" s="15"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="163"/>
-      <c r="B183" s="128"/>
-      <c r="C183" s="138"/>
-      <c r="D183" s="128"/>
+      <c r="A183" s="170"/>
+      <c r="B183" s="165"/>
+      <c r="C183" s="191"/>
+      <c r="D183" s="165"/>
       <c r="F183" s="16" t="s">
         <v>179</v>
       </c>
@@ -8375,10 +8375,10 @@
       <c r="L183" s="15"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="163"/>
-      <c r="B184" s="128"/>
-      <c r="C184" s="138"/>
-      <c r="D184" s="128"/>
+      <c r="A184" s="170"/>
+      <c r="B184" s="165"/>
+      <c r="C184" s="191"/>
+      <c r="D184" s="165"/>
       <c r="F184" s="29" t="s">
         <v>180</v>
       </c>
@@ -8389,10 +8389,10 @@
       <c r="L184" s="15"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" s="163"/>
-      <c r="B185" s="128"/>
-      <c r="C185" s="138"/>
-      <c r="D185" s="128"/>
+      <c r="A185" s="170"/>
+      <c r="B185" s="165"/>
+      <c r="C185" s="191"/>
+      <c r="D185" s="165"/>
       <c r="F185" s="29" t="s">
         <v>181</v>
       </c>
@@ -8403,10 +8403,10 @@
       <c r="L185" s="15"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="163"/>
-      <c r="B186" s="128"/>
-      <c r="C186" s="138"/>
-      <c r="D186" s="128"/>
+      <c r="A186" s="170"/>
+      <c r="B186" s="165"/>
+      <c r="C186" s="191"/>
+      <c r="D186" s="165"/>
       <c r="F186" s="29" t="s">
         <v>182</v>
       </c>
@@ -8417,10 +8417,10 @@
       <c r="L186" s="15"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" s="163"/>
-      <c r="B187" s="128"/>
-      <c r="C187" s="138"/>
-      <c r="D187" s="128"/>
+      <c r="A187" s="170"/>
+      <c r="B187" s="165"/>
+      <c r="C187" s="191"/>
+      <c r="D187" s="165"/>
       <c r="F187" s="16" t="s">
         <v>183</v>
       </c>
@@ -8431,10 +8431,10 @@
       <c r="L187" s="15"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" s="163"/>
-      <c r="B188" s="128"/>
-      <c r="C188" s="138"/>
-      <c r="D188" s="128"/>
+      <c r="A188" s="170"/>
+      <c r="B188" s="165"/>
+      <c r="C188" s="191"/>
+      <c r="D188" s="165"/>
       <c r="F188" s="16" t="s">
         <v>184</v>
       </c>
@@ -8445,10 +8445,10 @@
       <c r="L188" s="15"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189" s="163"/>
-      <c r="B189" s="128"/>
-      <c r="C189" s="138"/>
-      <c r="D189" s="128"/>
+      <c r="A189" s="170"/>
+      <c r="B189" s="165"/>
+      <c r="C189" s="191"/>
+      <c r="D189" s="165"/>
       <c r="F189" s="16" t="s">
         <v>185</v>
       </c>
@@ -8459,10 +8459,10 @@
       <c r="L189" s="15"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" s="163"/>
-      <c r="B190" s="128"/>
-      <c r="C190" s="138"/>
-      <c r="D190" s="128"/>
+      <c r="A190" s="170"/>
+      <c r="B190" s="165"/>
+      <c r="C190" s="191"/>
+      <c r="D190" s="165"/>
       <c r="F190" s="16" t="s">
         <v>186</v>
       </c>
@@ -8473,10 +8473,10 @@
       <c r="L190" s="15"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A191" s="163"/>
-      <c r="B191" s="128"/>
-      <c r="C191" s="138"/>
-      <c r="D191" s="128"/>
+      <c r="A191" s="170"/>
+      <c r="B191" s="165"/>
+      <c r="C191" s="191"/>
+      <c r="D191" s="165"/>
       <c r="F191" s="16" t="s">
         <v>187</v>
       </c>
@@ -8487,10 +8487,10 @@
       <c r="L191" s="15"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" s="163"/>
-      <c r="B192" s="128"/>
-      <c r="C192" s="138"/>
-      <c r="D192" s="128"/>
+      <c r="A192" s="170"/>
+      <c r="B192" s="165"/>
+      <c r="C192" s="191"/>
+      <c r="D192" s="165"/>
       <c r="F192" s="16" t="s">
         <v>188</v>
       </c>
@@ -8501,10 +8501,10 @@
       <c r="L192" s="15"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A193" s="163"/>
-      <c r="B193" s="128"/>
-      <c r="C193" s="138"/>
-      <c r="D193" s="128"/>
+      <c r="A193" s="170"/>
+      <c r="B193" s="165"/>
+      <c r="C193" s="191"/>
+      <c r="D193" s="165"/>
       <c r="F193" s="16" t="s">
         <v>189</v>
       </c>
@@ -8515,10 +8515,10 @@
       <c r="L193" s="15"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A194" s="163"/>
-      <c r="B194" s="128"/>
-      <c r="C194" s="138"/>
-      <c r="D194" s="128"/>
+      <c r="A194" s="170"/>
+      <c r="B194" s="165"/>
+      <c r="C194" s="191"/>
+      <c r="D194" s="165"/>
       <c r="F194" s="16" t="s">
         <v>190</v>
       </c>
@@ -8529,10 +8529,10 @@
       <c r="L194" s="15"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A195" s="163"/>
-      <c r="B195" s="128"/>
-      <c r="C195" s="138"/>
-      <c r="D195" s="128"/>
+      <c r="A195" s="170"/>
+      <c r="B195" s="165"/>
+      <c r="C195" s="191"/>
+      <c r="D195" s="165"/>
       <c r="F195" s="16" t="s">
         <v>191</v>
       </c>
@@ -8543,10 +8543,10 @@
       <c r="L195" s="15"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A196" s="163"/>
-      <c r="B196" s="128"/>
-      <c r="C196" s="138"/>
-      <c r="D196" s="128"/>
+      <c r="A196" s="170"/>
+      <c r="B196" s="165"/>
+      <c r="C196" s="191"/>
+      <c r="D196" s="165"/>
       <c r="F196" s="16" t="s">
         <v>192</v>
       </c>
@@ -8557,10 +8557,10 @@
       <c r="L196" s="15"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A197" s="163"/>
-      <c r="B197" s="128"/>
-      <c r="C197" s="138"/>
-      <c r="D197" s="128"/>
+      <c r="A197" s="170"/>
+      <c r="B197" s="165"/>
+      <c r="C197" s="191"/>
+      <c r="D197" s="165"/>
       <c r="F197" s="16" t="s">
         <v>193</v>
       </c>
@@ -8571,10 +8571,10 @@
       <c r="L197" s="15"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A198" s="163"/>
-      <c r="B198" s="128"/>
-      <c r="C198" s="138"/>
-      <c r="D198" s="128"/>
+      <c r="A198" s="170"/>
+      <c r="B198" s="165"/>
+      <c r="C198" s="191"/>
+      <c r="D198" s="165"/>
       <c r="F198" s="16" t="s">
         <v>194</v>
       </c>
@@ -8585,10 +8585,10 @@
       <c r="L198" s="15"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A199" s="163"/>
-      <c r="B199" s="128"/>
-      <c r="C199" s="138"/>
-      <c r="D199" s="128"/>
+      <c r="A199" s="170"/>
+      <c r="B199" s="165"/>
+      <c r="C199" s="191"/>
+      <c r="D199" s="165"/>
       <c r="F199" s="16" t="s">
         <v>195</v>
       </c>
@@ -8599,10 +8599,10 @@
       <c r="L199" s="15"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A200" s="163"/>
-      <c r="B200" s="128"/>
-      <c r="C200" s="138"/>
-      <c r="D200" s="128"/>
+      <c r="A200" s="170"/>
+      <c r="B200" s="165"/>
+      <c r="C200" s="191"/>
+      <c r="D200" s="165"/>
       <c r="F200" s="16" t="s">
         <v>196</v>
       </c>
@@ -8613,10 +8613,10 @@
       <c r="L200" s="15"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A201" s="163"/>
-      <c r="B201" s="128"/>
-      <c r="C201" s="138"/>
-      <c r="D201" s="128"/>
+      <c r="A201" s="170"/>
+      <c r="B201" s="165"/>
+      <c r="C201" s="191"/>
+      <c r="D201" s="165"/>
       <c r="F201" s="16" t="s">
         <v>197</v>
       </c>
@@ -8627,10 +8627,10 @@
       <c r="L201" s="15"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="163"/>
-      <c r="B202" s="128"/>
-      <c r="C202" s="138"/>
-      <c r="D202" s="128"/>
+      <c r="A202" s="170"/>
+      <c r="B202" s="165"/>
+      <c r="C202" s="191"/>
+      <c r="D202" s="165"/>
       <c r="F202" s="16" t="s">
         <v>198</v>
       </c>
@@ -8641,10 +8641,10 @@
       <c r="L202" s="15"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" s="163"/>
-      <c r="B203" s="128"/>
-      <c r="C203" s="138"/>
-      <c r="D203" s="128"/>
+      <c r="A203" s="170"/>
+      <c r="B203" s="165"/>
+      <c r="C203" s="191"/>
+      <c r="D203" s="165"/>
       <c r="F203" s="16" t="s">
         <v>199</v>
       </c>
@@ -8655,10 +8655,10 @@
       <c r="L203" s="15"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" s="163"/>
-      <c r="B204" s="128"/>
-      <c r="C204" s="138"/>
-      <c r="D204" s="128"/>
+      <c r="A204" s="170"/>
+      <c r="B204" s="165"/>
+      <c r="C204" s="191"/>
+      <c r="D204" s="165"/>
       <c r="F204" s="16" t="s">
         <v>200</v>
       </c>
@@ -8669,10 +8669,10 @@
       <c r="L204" s="15"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="163"/>
-      <c r="B205" s="128"/>
-      <c r="C205" s="138"/>
-      <c r="D205" s="128"/>
+      <c r="A205" s="170"/>
+      <c r="B205" s="165"/>
+      <c r="C205" s="191"/>
+      <c r="D205" s="165"/>
       <c r="F205" s="16" t="s">
         <v>201</v>
       </c>
@@ -8683,10 +8683,10 @@
       <c r="L205" s="15"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" s="163"/>
-      <c r="B206" s="128"/>
-      <c r="C206" s="138"/>
-      <c r="D206" s="128"/>
+      <c r="A206" s="170"/>
+      <c r="B206" s="165"/>
+      <c r="C206" s="191"/>
+      <c r="D206" s="165"/>
       <c r="F206" s="16" t="s">
         <v>202</v>
       </c>
@@ -8697,10 +8697,10 @@
       <c r="L206" s="15"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="163"/>
-      <c r="B207" s="128"/>
-      <c r="C207" s="138"/>
-      <c r="D207" s="128"/>
+      <c r="A207" s="170"/>
+      <c r="B207" s="165"/>
+      <c r="C207" s="191"/>
+      <c r="D207" s="165"/>
       <c r="F207" s="16" t="s">
         <v>203</v>
       </c>
@@ -8711,10 +8711,10 @@
       <c r="L207" s="15"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A208" s="163"/>
-      <c r="B208" s="128"/>
-      <c r="C208" s="138"/>
-      <c r="D208" s="128"/>
+      <c r="A208" s="170"/>
+      <c r="B208" s="165"/>
+      <c r="C208" s="191"/>
+      <c r="D208" s="165"/>
       <c r="F208" s="16" t="s">
         <v>204</v>
       </c>
@@ -8725,10 +8725,10 @@
       <c r="L208" s="15"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" s="163"/>
-      <c r="B209" s="128"/>
-      <c r="C209" s="138"/>
-      <c r="D209" s="128"/>
+      <c r="A209" s="170"/>
+      <c r="B209" s="165"/>
+      <c r="C209" s="191"/>
+      <c r="D209" s="165"/>
       <c r="F209" s="16" t="s">
         <v>205</v>
       </c>
@@ -8739,10 +8739,10 @@
       <c r="L209" s="15"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="163"/>
-      <c r="B210" s="128"/>
-      <c r="C210" s="139"/>
-      <c r="D210" s="127"/>
+      <c r="A210" s="170"/>
+      <c r="B210" s="165"/>
+      <c r="C210" s="192"/>
+      <c r="D210" s="166"/>
       <c r="F210" s="16" t="s">
         <v>206</v>
       </c>
@@ -8753,12 +8753,12 @@
       <c r="L210" s="15"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" s="163"/>
-      <c r="B211" s="128"/>
-      <c r="C211" s="137" t="s">
+      <c r="A211" s="170"/>
+      <c r="B211" s="165"/>
+      <c r="C211" s="190" t="s">
         <v>207</v>
       </c>
-      <c r="D211" s="126" t="s">
+      <c r="D211" s="164" t="s">
         <v>207</v>
       </c>
       <c r="F211" s="16" t="s">
@@ -8771,10 +8771,10 @@
       <c r="L211" s="15"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A212" s="163"/>
-      <c r="B212" s="128"/>
-      <c r="C212" s="138"/>
-      <c r="D212" s="128"/>
+      <c r="A212" s="170"/>
+      <c r="B212" s="165"/>
+      <c r="C212" s="191"/>
+      <c r="D212" s="165"/>
       <c r="F212" s="16" t="s">
         <v>59</v>
       </c>
@@ -8785,10 +8785,10 @@
       <c r="L212" s="15"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" s="163"/>
-      <c r="B213" s="128"/>
-      <c r="C213" s="138"/>
-      <c r="D213" s="128"/>
+      <c r="A213" s="170"/>
+      <c r="B213" s="165"/>
+      <c r="C213" s="191"/>
+      <c r="D213" s="165"/>
       <c r="F213" s="16" t="s">
         <v>208</v>
       </c>
@@ -8799,10 +8799,10 @@
       <c r="L213" s="15"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" s="163"/>
-      <c r="B214" s="128"/>
-      <c r="C214" s="138"/>
-      <c r="D214" s="128"/>
+      <c r="A214" s="170"/>
+      <c r="B214" s="165"/>
+      <c r="C214" s="191"/>
+      <c r="D214" s="165"/>
       <c r="F214" s="16" t="s">
         <v>183</v>
       </c>
@@ -8813,10 +8813,10 @@
       <c r="L214" s="15"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" s="163"/>
-      <c r="B215" s="128"/>
-      <c r="C215" s="138"/>
-      <c r="D215" s="128"/>
+      <c r="A215" s="170"/>
+      <c r="B215" s="165"/>
+      <c r="C215" s="191"/>
+      <c r="D215" s="165"/>
       <c r="F215" s="16" t="s">
         <v>180</v>
       </c>
@@ -8827,10 +8827,10 @@
       <c r="L215" s="15"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" s="163"/>
-      <c r="B216" s="128"/>
-      <c r="C216" s="138"/>
-      <c r="D216" s="128"/>
+      <c r="A216" s="170"/>
+      <c r="B216" s="165"/>
+      <c r="C216" s="191"/>
+      <c r="D216" s="165"/>
       <c r="F216" s="16" t="s">
         <v>178</v>
       </c>
@@ -8841,10 +8841,10 @@
       <c r="L216" s="15"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" s="163"/>
-      <c r="B217" s="128"/>
-      <c r="C217" s="138"/>
-      <c r="D217" s="128"/>
+      <c r="A217" s="170"/>
+      <c r="B217" s="165"/>
+      <c r="C217" s="191"/>
+      <c r="D217" s="165"/>
       <c r="F217" s="16" t="s">
         <v>185</v>
       </c>
@@ -8855,10 +8855,10 @@
       <c r="L217" s="15"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" s="163"/>
-      <c r="B218" s="128"/>
-      <c r="C218" s="138"/>
-      <c r="D218" s="128"/>
+      <c r="A218" s="170"/>
+      <c r="B218" s="165"/>
+      <c r="C218" s="191"/>
+      <c r="D218" s="165"/>
       <c r="F218" s="16" t="s">
         <v>209</v>
       </c>
@@ -8869,10 +8869,10 @@
       <c r="L218" s="15"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" s="163"/>
-      <c r="B219" s="128"/>
-      <c r="C219" s="138"/>
-      <c r="D219" s="128"/>
+      <c r="A219" s="170"/>
+      <c r="B219" s="165"/>
+      <c r="C219" s="191"/>
+      <c r="D219" s="165"/>
       <c r="F219" s="16" t="s">
         <v>210</v>
       </c>
@@ -8883,10 +8883,10 @@
       <c r="L219" s="15"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" s="163"/>
-      <c r="B220" s="128"/>
-      <c r="C220" s="138"/>
-      <c r="D220" s="128"/>
+      <c r="A220" s="170"/>
+      <c r="B220" s="165"/>
+      <c r="C220" s="191"/>
+      <c r="D220" s="165"/>
       <c r="F220" s="16" t="s">
         <v>211</v>
       </c>
@@ -8897,10 +8897,10 @@
       <c r="L220" s="15"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" s="163"/>
-      <c r="B221" s="128"/>
-      <c r="C221" s="138"/>
-      <c r="D221" s="128"/>
+      <c r="A221" s="170"/>
+      <c r="B221" s="165"/>
+      <c r="C221" s="191"/>
+      <c r="D221" s="165"/>
       <c r="F221" s="16" t="s">
         <v>212</v>
       </c>
@@ -8911,10 +8911,10 @@
       <c r="L221" s="15"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A222" s="163"/>
-      <c r="B222" s="128"/>
-      <c r="C222" s="138"/>
-      <c r="D222" s="128"/>
+      <c r="A222" s="170"/>
+      <c r="B222" s="165"/>
+      <c r="C222" s="191"/>
+      <c r="D222" s="165"/>
       <c r="F222" s="16" t="s">
         <v>203</v>
       </c>
@@ -8925,10 +8925,10 @@
       <c r="L222" s="15"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" s="163"/>
-      <c r="B223" s="128"/>
-      <c r="C223" s="138"/>
-      <c r="D223" s="128"/>
+      <c r="A223" s="170"/>
+      <c r="B223" s="165"/>
+      <c r="C223" s="191"/>
+      <c r="D223" s="165"/>
       <c r="F223" s="16" t="s">
         <v>204</v>
       </c>
@@ -8939,10 +8939,10 @@
       <c r="L223" s="15"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A224" s="163"/>
-      <c r="B224" s="128"/>
-      <c r="C224" s="138"/>
-      <c r="D224" s="128"/>
+      <c r="A224" s="170"/>
+      <c r="B224" s="165"/>
+      <c r="C224" s="191"/>
+      <c r="D224" s="165"/>
       <c r="F224" s="16" t="s">
         <v>205</v>
       </c>
@@ -8953,10 +8953,10 @@
       <c r="L224" s="15"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A225" s="163"/>
-      <c r="B225" s="128"/>
-      <c r="C225" s="138"/>
-      <c r="D225" s="128"/>
+      <c r="A225" s="170"/>
+      <c r="B225" s="165"/>
+      <c r="C225" s="191"/>
+      <c r="D225" s="165"/>
       <c r="F225" s="16" t="s">
         <v>206</v>
       </c>
@@ -8967,10 +8967,10 @@
       <c r="L225" s="15"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A226" s="163"/>
-      <c r="B226" s="128"/>
-      <c r="C226" s="138"/>
-      <c r="D226" s="128"/>
+      <c r="A226" s="170"/>
+      <c r="B226" s="165"/>
+      <c r="C226" s="191"/>
+      <c r="D226" s="165"/>
       <c r="F226" s="16" t="s">
         <v>213</v>
       </c>
@@ -8981,10 +8981,10 @@
       <c r="L226" s="15"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" s="163"/>
-      <c r="B227" s="128"/>
-      <c r="C227" s="139"/>
-      <c r="D227" s="127"/>
+      <c r="A227" s="170"/>
+      <c r="B227" s="165"/>
+      <c r="C227" s="192"/>
+      <c r="D227" s="166"/>
       <c r="F227" s="16" t="s">
         <v>198</v>
       </c>
@@ -8995,8 +8995,8 @@
       <c r="L227" s="15"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="163"/>
-      <c r="B228" s="128"/>
+      <c r="A228" s="170"/>
+      <c r="B228" s="165"/>
       <c r="C228" s="70" t="s">
         <v>545</v>
       </c>
@@ -9011,8 +9011,8 @@
       <c r="L228" s="15"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="163"/>
-      <c r="B229" s="128"/>
+      <c r="A229" s="170"/>
+      <c r="B229" s="165"/>
       <c r="C229" s="70" t="s">
         <v>546</v>
       </c>
@@ -9027,12 +9027,12 @@
       <c r="L229" s="15"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A230" s="163"/>
-      <c r="B230" s="128"/>
-      <c r="C230" s="113" t="s">
+      <c r="A230" s="170"/>
+      <c r="B230" s="165"/>
+      <c r="C230" s="193" t="s">
         <v>214</v>
       </c>
-      <c r="D230" s="126" t="s">
+      <c r="D230" s="164" t="s">
         <v>214</v>
       </c>
       <c r="F230" s="16" t="s">
@@ -9045,10 +9045,10 @@
       <c r="L230" s="15"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A231" s="163"/>
-      <c r="B231" s="128"/>
-      <c r="C231" s="114"/>
-      <c r="D231" s="128"/>
+      <c r="A231" s="170"/>
+      <c r="B231" s="165"/>
+      <c r="C231" s="194"/>
+      <c r="D231" s="165"/>
       <c r="F231" s="16" t="s">
         <v>215</v>
       </c>
@@ -9059,10 +9059,10 @@
       <c r="L231" s="15"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="163"/>
-      <c r="B232" s="128"/>
-      <c r="C232" s="114"/>
-      <c r="D232" s="128"/>
+      <c r="A232" s="170"/>
+      <c r="B232" s="165"/>
+      <c r="C232" s="194"/>
+      <c r="D232" s="165"/>
       <c r="F232" s="16" t="s">
         <v>104</v>
       </c>
@@ -9073,10 +9073,10 @@
       <c r="L232" s="15"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="163"/>
-      <c r="B233" s="128"/>
-      <c r="C233" s="114"/>
-      <c r="D233" s="128"/>
+      <c r="A233" s="170"/>
+      <c r="B233" s="165"/>
+      <c r="C233" s="194"/>
+      <c r="D233" s="165"/>
       <c r="F233" s="16" t="s">
         <v>177</v>
       </c>
@@ -9087,10 +9087,10 @@
       <c r="L233" s="15"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A234" s="163"/>
-      <c r="B234" s="128"/>
-      <c r="C234" s="114"/>
-      <c r="D234" s="128"/>
+      <c r="A234" s="170"/>
+      <c r="B234" s="165"/>
+      <c r="C234" s="194"/>
+      <c r="D234" s="165"/>
       <c r="F234" s="16" t="s">
         <v>180</v>
       </c>
@@ -9101,10 +9101,10 @@
       <c r="L234" s="15"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="163"/>
-      <c r="B235" s="128"/>
-      <c r="C235" s="114"/>
-      <c r="D235" s="128"/>
+      <c r="A235" s="170"/>
+      <c r="B235" s="165"/>
+      <c r="C235" s="194"/>
+      <c r="D235" s="165"/>
       <c r="F235" s="16" t="s">
         <v>216</v>
       </c>
@@ -9115,10 +9115,10 @@
       <c r="L235" s="15"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A236" s="163"/>
-      <c r="B236" s="128"/>
-      <c r="C236" s="114"/>
-      <c r="D236" s="128"/>
+      <c r="A236" s="170"/>
+      <c r="B236" s="165"/>
+      <c r="C236" s="194"/>
+      <c r="D236" s="165"/>
       <c r="F236" s="16" t="s">
         <v>198</v>
       </c>
@@ -9129,10 +9129,10 @@
       <c r="L236" s="15"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A237" s="163"/>
-      <c r="B237" s="128"/>
-      <c r="C237" s="114"/>
-      <c r="D237" s="128"/>
+      <c r="A237" s="170"/>
+      <c r="B237" s="165"/>
+      <c r="C237" s="194"/>
+      <c r="D237" s="165"/>
       <c r="F237" s="16" t="s">
         <v>217</v>
       </c>
@@ -9143,10 +9143,10 @@
       <c r="L237" s="15"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="163"/>
-      <c r="B238" s="128"/>
-      <c r="C238" s="114"/>
-      <c r="D238" s="128"/>
+      <c r="A238" s="170"/>
+      <c r="B238" s="165"/>
+      <c r="C238" s="194"/>
+      <c r="D238" s="165"/>
       <c r="F238" s="16" t="s">
         <v>218</v>
       </c>
@@ -9157,10 +9157,10 @@
       <c r="L238" s="15"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A239" s="163"/>
-      <c r="B239" s="128"/>
-      <c r="C239" s="114"/>
-      <c r="D239" s="128"/>
+      <c r="A239" s="170"/>
+      <c r="B239" s="165"/>
+      <c r="C239" s="194"/>
+      <c r="D239" s="165"/>
       <c r="F239" s="16" t="s">
         <v>219</v>
       </c>
@@ -9171,10 +9171,10 @@
       <c r="L239" s="15"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A240" s="163"/>
-      <c r="B240" s="128"/>
-      <c r="C240" s="114"/>
-      <c r="D240" s="128"/>
+      <c r="A240" s="170"/>
+      <c r="B240" s="165"/>
+      <c r="C240" s="194"/>
+      <c r="D240" s="165"/>
       <c r="F240" s="16" t="s">
         <v>47</v>
       </c>
@@ -9185,10 +9185,10 @@
       <c r="L240" s="15"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A241" s="163"/>
-      <c r="B241" s="128"/>
-      <c r="C241" s="114"/>
-      <c r="D241" s="128"/>
+      <c r="A241" s="170"/>
+      <c r="B241" s="165"/>
+      <c r="C241" s="194"/>
+      <c r="D241" s="165"/>
       <c r="F241" s="16" t="s">
         <v>220</v>
       </c>
@@ -9199,10 +9199,10 @@
       <c r="L241" s="15"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A242" s="163"/>
-      <c r="B242" s="128"/>
-      <c r="C242" s="114"/>
-      <c r="D242" s="128"/>
+      <c r="A242" s="170"/>
+      <c r="B242" s="165"/>
+      <c r="C242" s="194"/>
+      <c r="D242" s="165"/>
       <c r="F242" s="16" t="s">
         <v>221</v>
       </c>
@@ -9213,10 +9213,10 @@
       <c r="L242" s="15"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A243" s="163"/>
-      <c r="B243" s="128"/>
-      <c r="C243" s="114"/>
-      <c r="D243" s="128"/>
+      <c r="A243" s="170"/>
+      <c r="B243" s="165"/>
+      <c r="C243" s="194"/>
+      <c r="D243" s="165"/>
       <c r="F243" s="16" t="s">
         <v>109</v>
       </c>
@@ -9227,10 +9227,10 @@
       <c r="L243" s="15"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A244" s="163"/>
-      <c r="B244" s="128"/>
-      <c r="C244" s="114"/>
-      <c r="D244" s="128"/>
+      <c r="A244" s="170"/>
+      <c r="B244" s="165"/>
+      <c r="C244" s="194"/>
+      <c r="D244" s="165"/>
       <c r="F244" s="16" t="s">
         <v>222</v>
       </c>
@@ -9241,10 +9241,10 @@
       <c r="L244" s="15"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A245" s="163"/>
-      <c r="B245" s="128"/>
-      <c r="C245" s="114"/>
-      <c r="D245" s="128"/>
+      <c r="A245" s="170"/>
+      <c r="B245" s="165"/>
+      <c r="C245" s="194"/>
+      <c r="D245" s="165"/>
       <c r="F245" s="16" t="s">
         <v>223</v>
       </c>
@@ -9255,10 +9255,10 @@
       <c r="L245" s="15"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A246" s="163"/>
-      <c r="B246" s="128"/>
-      <c r="C246" s="114"/>
-      <c r="D246" s="128"/>
+      <c r="A246" s="170"/>
+      <c r="B246" s="165"/>
+      <c r="C246" s="194"/>
+      <c r="D246" s="165"/>
       <c r="F246" s="16" t="s">
         <v>224</v>
       </c>
@@ -9269,10 +9269,10 @@
       <c r="L246" s="15"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A247" s="163"/>
-      <c r="B247" s="128"/>
-      <c r="C247" s="114"/>
-      <c r="D247" s="128"/>
+      <c r="A247" s="170"/>
+      <c r="B247" s="165"/>
+      <c r="C247" s="194"/>
+      <c r="D247" s="165"/>
       <c r="F247" s="16" t="s">
         <v>225</v>
       </c>
@@ -9283,10 +9283,10 @@
       <c r="L247" s="15"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A248" s="163"/>
-      <c r="B248" s="128"/>
-      <c r="C248" s="114"/>
-      <c r="D248" s="128"/>
+      <c r="A248" s="170"/>
+      <c r="B248" s="165"/>
+      <c r="C248" s="194"/>
+      <c r="D248" s="165"/>
       <c r="F248" s="16" t="s">
         <v>226</v>
       </c>
@@ -9297,10 +9297,10 @@
       <c r="L248" s="15"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A249" s="163"/>
-      <c r="B249" s="128"/>
-      <c r="C249" s="114"/>
-      <c r="D249" s="128"/>
+      <c r="A249" s="170"/>
+      <c r="B249" s="165"/>
+      <c r="C249" s="194"/>
+      <c r="D249" s="165"/>
       <c r="F249" s="16" t="s">
         <v>227</v>
       </c>
@@ -9311,10 +9311,10 @@
       <c r="L249" s="15"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A250" s="163"/>
-      <c r="B250" s="128"/>
-      <c r="C250" s="115"/>
-      <c r="D250" s="127"/>
+      <c r="A250" s="170"/>
+      <c r="B250" s="165"/>
+      <c r="C250" s="195"/>
+      <c r="D250" s="166"/>
       <c r="F250" s="16" t="s">
         <v>228</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="L250" s="15"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A251" s="126" t="s">
+      <c r="A251" s="164" t="s">
         <v>410</v>
       </c>
       <c r="B251" s="30" t="s">
@@ -9341,14 +9341,14 @@
       <c r="L251" s="15"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A252" s="128"/>
-      <c r="B252" s="126" t="s">
+      <c r="A252" s="165"/>
+      <c r="B252" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="C252" s="126" t="s">
+      <c r="C252" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="D252" s="126"/>
+      <c r="D252" s="164"/>
       <c r="F252" s="16" t="s">
         <v>232</v>
       </c>
@@ -9361,10 +9361,10 @@
       <c r="L252" s="15"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A253" s="128"/>
-      <c r="B253" s="128"/>
-      <c r="C253" s="128"/>
-      <c r="D253" s="128"/>
+      <c r="A253" s="165"/>
+      <c r="B253" s="165"/>
+      <c r="C253" s="165"/>
+      <c r="D253" s="165"/>
       <c r="F253" s="16" t="s">
         <v>233</v>
       </c>
@@ -9377,10 +9377,10 @@
       <c r="L253" s="15"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A254" s="128"/>
-      <c r="B254" s="128"/>
-      <c r="C254" s="128"/>
-      <c r="D254" s="128"/>
+      <c r="A254" s="165"/>
+      <c r="B254" s="165"/>
+      <c r="C254" s="165"/>
+      <c r="D254" s="165"/>
       <c r="F254" s="16" t="s">
         <v>234</v>
       </c>
@@ -9393,10 +9393,10 @@
       <c r="L254" s="15"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A255" s="128"/>
-      <c r="B255" s="128"/>
-      <c r="C255" s="128"/>
-      <c r="D255" s="128"/>
+      <c r="A255" s="165"/>
+      <c r="B255" s="165"/>
+      <c r="C255" s="165"/>
+      <c r="D255" s="165"/>
       <c r="F255" s="31" t="s">
         <v>403</v>
       </c>
@@ -9409,10 +9409,10 @@
       <c r="L255" s="34"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A256" s="128"/>
-      <c r="B256" s="128"/>
-      <c r="C256" s="128"/>
-      <c r="D256" s="128"/>
+      <c r="A256" s="165"/>
+      <c r="B256" s="165"/>
+      <c r="C256" s="165"/>
+      <c r="D256" s="165"/>
       <c r="F256" s="31" t="s">
         <v>404</v>
       </c>
@@ -9425,10 +9425,10 @@
       <c r="L256" s="34"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A257" s="128"/>
-      <c r="B257" s="128"/>
-      <c r="C257" s="128"/>
-      <c r="D257" s="128"/>
+      <c r="A257" s="165"/>
+      <c r="B257" s="165"/>
+      <c r="C257" s="165"/>
+      <c r="D257" s="165"/>
       <c r="F257" s="31" t="s">
         <v>405</v>
       </c>
@@ -9441,10 +9441,10 @@
       <c r="L257" s="34"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A258" s="128"/>
-      <c r="B258" s="128"/>
-      <c r="C258" s="128"/>
-      <c r="D258" s="128"/>
+      <c r="A258" s="165"/>
+      <c r="B258" s="165"/>
+      <c r="C258" s="165"/>
+      <c r="D258" s="165"/>
       <c r="F258" s="80" t="s">
         <v>615</v>
       </c>
@@ -9455,10 +9455,10 @@
       <c r="L258" s="34"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A259" s="128"/>
-      <c r="B259" s="128"/>
-      <c r="C259" s="128"/>
-      <c r="D259" s="128"/>
+      <c r="A259" s="165"/>
+      <c r="B259" s="165"/>
+      <c r="C259" s="165"/>
+      <c r="D259" s="165"/>
       <c r="F259" s="31" t="s">
         <v>67</v>
       </c>
@@ -9469,10 +9469,10 @@
       <c r="L259" s="34"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A260" s="128"/>
-      <c r="B260" s="128"/>
-      <c r="C260" s="128"/>
-      <c r="D260" s="128"/>
+      <c r="A260" s="165"/>
+      <c r="B260" s="165"/>
+      <c r="C260" s="165"/>
+      <c r="D260" s="165"/>
       <c r="F260" s="31" t="s">
         <v>235</v>
       </c>
@@ -9483,10 +9483,10 @@
       <c r="L260" s="34"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A261" s="128"/>
-      <c r="B261" s="128"/>
-      <c r="C261" s="127"/>
-      <c r="D261" s="127"/>
+      <c r="A261" s="165"/>
+      <c r="B261" s="165"/>
+      <c r="C261" s="166"/>
+      <c r="D261" s="166"/>
       <c r="F261" s="31" t="s">
         <v>236</v>
       </c>
@@ -9497,8 +9497,8 @@
       <c r="L261" s="34"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A262" s="128"/>
-      <c r="B262" s="128"/>
+      <c r="A262" s="165"/>
+      <c r="B262" s="165"/>
       <c r="C262" s="35" t="s">
         <v>237</v>
       </c>
@@ -9511,12 +9511,12 @@
       <c r="L262" s="34"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A263" s="128"/>
-      <c r="B263" s="128"/>
-      <c r="C263" s="129" t="s">
+      <c r="A263" s="165"/>
+      <c r="B263" s="165"/>
+      <c r="C263" s="196" t="s">
         <v>238</v>
       </c>
-      <c r="D263" s="129"/>
+      <c r="D263" s="196"/>
       <c r="F263" s="31" t="s">
         <v>239</v>
       </c>
@@ -9529,10 +9529,10 @@
       <c r="L263" s="34"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A264" s="128"/>
-      <c r="B264" s="128"/>
-      <c r="C264" s="131"/>
-      <c r="D264" s="131"/>
+      <c r="A264" s="165"/>
+      <c r="B264" s="165"/>
+      <c r="C264" s="197"/>
+      <c r="D264" s="197"/>
       <c r="F264" s="31" t="s">
         <v>240</v>
       </c>
@@ -9543,10 +9543,10 @@
       <c r="L264" s="34"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A265" s="128"/>
-      <c r="B265" s="128"/>
-      <c r="C265" s="131"/>
-      <c r="D265" s="131"/>
+      <c r="A265" s="165"/>
+      <c r="B265" s="165"/>
+      <c r="C265" s="197"/>
+      <c r="D265" s="197"/>
       <c r="F265" s="31" t="s">
         <v>403</v>
       </c>
@@ -9559,10 +9559,10 @@
       <c r="L265" s="34"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A266" s="128"/>
-      <c r="B266" s="128"/>
-      <c r="C266" s="131"/>
-      <c r="D266" s="131"/>
+      <c r="A266" s="165"/>
+      <c r="B266" s="165"/>
+      <c r="C266" s="197"/>
+      <c r="D266" s="197"/>
       <c r="F266" s="31" t="s">
         <v>407</v>
       </c>
@@ -9573,10 +9573,10 @@
       <c r="L266" s="34"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A267" s="128"/>
-      <c r="B267" s="128"/>
-      <c r="C267" s="131"/>
-      <c r="D267" s="131"/>
+      <c r="A267" s="165"/>
+      <c r="B267" s="165"/>
+      <c r="C267" s="197"/>
+      <c r="D267" s="197"/>
       <c r="F267" s="80" t="s">
         <v>658</v>
       </c>
@@ -9589,10 +9589,10 @@
       <c r="L267" s="34"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A268" s="128"/>
-      <c r="B268" s="128"/>
-      <c r="C268" s="131"/>
-      <c r="D268" s="131"/>
+      <c r="A268" s="165"/>
+      <c r="B268" s="165"/>
+      <c r="C268" s="197"/>
+      <c r="D268" s="197"/>
       <c r="F268" s="31" t="s">
         <v>408</v>
       </c>
@@ -9603,10 +9603,10 @@
       <c r="L268" s="34"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A269" s="128"/>
-      <c r="B269" s="128"/>
-      <c r="C269" s="131"/>
-      <c r="D269" s="131"/>
+      <c r="A269" s="165"/>
+      <c r="B269" s="165"/>
+      <c r="C269" s="197"/>
+      <c r="D269" s="197"/>
       <c r="F269" s="31" t="s">
         <v>616</v>
       </c>
@@ -9619,10 +9619,10 @@
       <c r="L269" s="34"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A270" s="128"/>
-      <c r="B270" s="128"/>
-      <c r="C270" s="131"/>
-      <c r="D270" s="131"/>
+      <c r="A270" s="165"/>
+      <c r="B270" s="165"/>
+      <c r="C270" s="197"/>
+      <c r="D270" s="197"/>
       <c r="F270" s="31" t="s">
         <v>241</v>
       </c>
@@ -9633,10 +9633,10 @@
       <c r="L270" s="34"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A271" s="128"/>
-      <c r="B271" s="128"/>
-      <c r="C271" s="131"/>
-      <c r="D271" s="131"/>
+      <c r="A271" s="165"/>
+      <c r="B271" s="165"/>
+      <c r="C271" s="197"/>
+      <c r="D271" s="197"/>
       <c r="F271" s="31" t="s">
         <v>242</v>
       </c>
@@ -9649,10 +9649,10 @@
       <c r="L271" s="34"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A272" s="128"/>
-      <c r="B272" s="128"/>
-      <c r="C272" s="131"/>
-      <c r="D272" s="131"/>
+      <c r="A272" s="165"/>
+      <c r="B272" s="165"/>
+      <c r="C272" s="197"/>
+      <c r="D272" s="197"/>
       <c r="F272" s="36" t="s">
         <v>617</v>
       </c>
@@ -9667,10 +9667,10 @@
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A273" s="128"/>
-      <c r="B273" s="128"/>
-      <c r="C273" s="130"/>
-      <c r="D273" s="130"/>
+      <c r="A273" s="165"/>
+      <c r="B273" s="165"/>
+      <c r="C273" s="198"/>
+      <c r="D273" s="198"/>
       <c r="F273" s="36" t="s">
         <v>618</v>
       </c>
@@ -9683,12 +9683,12 @@
       <c r="L273" s="34"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A274" s="128"/>
-      <c r="B274" s="128"/>
-      <c r="C274" s="132" t="s">
+      <c r="A274" s="165"/>
+      <c r="B274" s="165"/>
+      <c r="C274" s="199" t="s">
         <v>246</v>
       </c>
-      <c r="D274" s="132"/>
+      <c r="D274" s="199"/>
       <c r="F274" s="31" t="s">
         <v>53</v>
       </c>
@@ -9699,10 +9699,10 @@
       <c r="L274" s="34"/>
     </row>
     <row r="275" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="128"/>
-      <c r="B275" s="128"/>
-      <c r="C275" s="133"/>
-      <c r="D275" s="133"/>
+      <c r="A275" s="165"/>
+      <c r="B275" s="165"/>
+      <c r="C275" s="200"/>
+      <c r="D275" s="200"/>
       <c r="F275" s="31" t="s">
         <v>653</v>
       </c>
@@ -9716,10 +9716,10 @@
       <c r="L275" s="34"/>
     </row>
     <row r="276" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="128"/>
-      <c r="B276" s="128"/>
-      <c r="C276" s="133"/>
-      <c r="D276" s="133"/>
+      <c r="A276" s="165"/>
+      <c r="B276" s="165"/>
+      <c r="C276" s="200"/>
+      <c r="D276" s="200"/>
       <c r="F276" s="31" t="s">
         <v>654</v>
       </c>
@@ -9730,10 +9730,10 @@
       <c r="L276" s="34"/>
     </row>
     <row r="277" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="128"/>
-      <c r="B277" s="128"/>
-      <c r="C277" s="134"/>
-      <c r="D277" s="134"/>
+      <c r="A277" s="165"/>
+      <c r="B277" s="165"/>
+      <c r="C277" s="201"/>
+      <c r="D277" s="201"/>
       <c r="F277" s="31" t="s">
         <v>655</v>
       </c>
@@ -9744,12 +9744,12 @@
       <c r="L277" s="34"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A278" s="128"/>
-      <c r="B278" s="128"/>
-      <c r="C278" s="132" t="s">
+      <c r="A278" s="165"/>
+      <c r="B278" s="165"/>
+      <c r="C278" s="199" t="s">
         <v>247</v>
       </c>
-      <c r="D278" s="132"/>
+      <c r="D278" s="199"/>
       <c r="F278" s="31" t="s">
         <v>161</v>
       </c>
@@ -9762,10 +9762,10 @@
       <c r="L278" s="34"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A279" s="128"/>
-      <c r="B279" s="128"/>
-      <c r="C279" s="133"/>
-      <c r="D279" s="133"/>
+      <c r="A279" s="165"/>
+      <c r="B279" s="165"/>
+      <c r="C279" s="200"/>
+      <c r="D279" s="200"/>
       <c r="F279" s="31" t="s">
         <v>248</v>
       </c>
@@ -9778,10 +9778,10 @@
       <c r="L279" s="34"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A280" s="128"/>
-      <c r="B280" s="128"/>
-      <c r="C280" s="133"/>
-      <c r="D280" s="133"/>
+      <c r="A280" s="165"/>
+      <c r="B280" s="165"/>
+      <c r="C280" s="200"/>
+      <c r="D280" s="200"/>
       <c r="F280" s="31" t="s">
         <v>249</v>
       </c>
@@ -9794,10 +9794,10 @@
       <c r="L280" s="34"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A281" s="128"/>
-      <c r="B281" s="128"/>
-      <c r="C281" s="134"/>
-      <c r="D281" s="134"/>
+      <c r="A281" s="165"/>
+      <c r="B281" s="165"/>
+      <c r="C281" s="201"/>
+      <c r="D281" s="201"/>
       <c r="F281" s="31" t="s">
         <v>621</v>
       </c>
@@ -9810,12 +9810,12 @@
       <c r="L281" s="34"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A282" s="128"/>
-      <c r="B282" s="128"/>
-      <c r="C282" s="135" t="s">
+      <c r="A282" s="165"/>
+      <c r="B282" s="165"/>
+      <c r="C282" s="188" t="s">
         <v>250</v>
       </c>
-      <c r="D282" s="129"/>
+      <c r="D282" s="196"/>
       <c r="F282" s="31" t="s">
         <v>251</v>
       </c>
@@ -9826,10 +9826,10 @@
       <c r="L282" s="34"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A283" s="128"/>
-      <c r="B283" s="128"/>
-      <c r="C283" s="136"/>
-      <c r="D283" s="130"/>
+      <c r="A283" s="165"/>
+      <c r="B283" s="165"/>
+      <c r="C283" s="189"/>
+      <c r="D283" s="198"/>
       <c r="F283" s="31" t="s">
         <v>252</v>
       </c>
@@ -9842,8 +9842,8 @@
       <c r="L283" s="34"/>
     </row>
     <row r="284" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A284" s="128"/>
-      <c r="B284" s="128"/>
+      <c r="A284" s="165"/>
+      <c r="B284" s="165"/>
       <c r="C284" s="37" t="s">
         <v>254</v>
       </c>
@@ -9858,8 +9858,8 @@
       <c r="L284" s="34"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A285" s="128"/>
-      <c r="B285" s="128"/>
+      <c r="A285" s="165"/>
+      <c r="B285" s="165"/>
       <c r="C285" s="39" t="s">
         <v>256</v>
       </c>
@@ -9878,8 +9878,8 @@
       </c>
     </row>
     <row r="286" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A286" s="128"/>
-      <c r="B286" s="128"/>
+      <c r="A286" s="165"/>
+      <c r="B286" s="165"/>
       <c r="C286" s="41" t="s">
         <v>260</v>
       </c>
@@ -9894,8 +9894,8 @@
       <c r="L286" s="34"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A287" s="128"/>
-      <c r="B287" s="128"/>
+      <c r="A287" s="165"/>
+      <c r="B287" s="165"/>
       <c r="C287" s="35" t="s">
         <v>261</v>
       </c>
@@ -9910,8 +9910,8 @@
       <c r="L287" s="34"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A288" s="128"/>
-      <c r="B288" s="128"/>
+      <c r="A288" s="165"/>
+      <c r="B288" s="165"/>
       <c r="C288" s="35"/>
       <c r="D288" s="35"/>
       <c r="F288" s="31" t="s">
@@ -9926,8 +9926,8 @@
       <c r="L288" s="34"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A289" s="128"/>
-      <c r="B289" s="128"/>
+      <c r="A289" s="165"/>
+      <c r="B289" s="165"/>
       <c r="C289" s="35"/>
       <c r="D289" s="35"/>
       <c r="F289" s="31" t="s">
@@ -9940,8 +9940,8 @@
       <c r="L289" s="34"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A290" s="128"/>
-      <c r="B290" s="128"/>
+      <c r="A290" s="165"/>
+      <c r="B290" s="165"/>
       <c r="C290" s="35" t="s">
         <v>265</v>
       </c>
@@ -9956,8 +9956,8 @@
       <c r="L290" s="34"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A291" s="128"/>
-      <c r="B291" s="128"/>
+      <c r="A291" s="165"/>
+      <c r="B291" s="165"/>
       <c r="C291" s="35"/>
       <c r="D291" s="35"/>
       <c r="F291" s="31" t="s">
@@ -9972,8 +9972,8 @@
       <c r="L291" s="34"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A292" s="128"/>
-      <c r="B292" s="128"/>
+      <c r="A292" s="165"/>
+      <c r="B292" s="165"/>
       <c r="C292" s="35"/>
       <c r="D292" s="35"/>
       <c r="F292" s="31" t="s">
@@ -9986,8 +9986,8 @@
       <c r="L292" s="34"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A293" s="128"/>
-      <c r="B293" s="128"/>
+      <c r="A293" s="165"/>
+      <c r="B293" s="165"/>
       <c r="C293" s="35" t="s">
         <v>270</v>
       </c>
@@ -10000,8 +10000,8 @@
       <c r="L293" s="34"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A294" s="128"/>
-      <c r="B294" s="127"/>
+      <c r="A294" s="165"/>
+      <c r="B294" s="166"/>
       <c r="C294" s="35" t="s">
         <v>271</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="L294" s="34"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A295" s="127"/>
+      <c r="A295" s="166"/>
       <c r="B295" s="9" t="s">
         <v>272</v>
       </c>
@@ -10049,15 +10049,55 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C163:C179"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="C136:C143"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="D180:D210"/>
+    <mergeCell ref="D211:D227"/>
+    <mergeCell ref="D230:D250"/>
+    <mergeCell ref="D252:D261"/>
+    <mergeCell ref="D263:D273"/>
+    <mergeCell ref="D274:D277"/>
+    <mergeCell ref="D278:D281"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="C180:C210"/>
+    <mergeCell ref="C211:C227"/>
+    <mergeCell ref="C230:C250"/>
+    <mergeCell ref="C263:C273"/>
+    <mergeCell ref="C274:C277"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C252:C261"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C109:C112"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="A251:A295"/>
     <mergeCell ref="B2:B30"/>
     <mergeCell ref="B31:B36"/>
@@ -10074,55 +10114,15 @@
     <mergeCell ref="A58:A162"/>
     <mergeCell ref="A163:A250"/>
     <mergeCell ref="B37:B49"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="C180:C210"/>
-    <mergeCell ref="C211:C227"/>
-    <mergeCell ref="C230:C250"/>
-    <mergeCell ref="C263:C273"/>
-    <mergeCell ref="C274:C277"/>
-    <mergeCell ref="C278:C281"/>
-    <mergeCell ref="C252:C261"/>
-    <mergeCell ref="D282:D283"/>
-    <mergeCell ref="D180:D210"/>
-    <mergeCell ref="D211:D227"/>
-    <mergeCell ref="D230:D250"/>
-    <mergeCell ref="D252:D261"/>
-    <mergeCell ref="D263:D273"/>
-    <mergeCell ref="D274:D277"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C163:C179"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C136:C143"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10853,92 +10853,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="255" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="256" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="257" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.125" style="256" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="256" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="48.625" style="257" customWidth="1"/>
-    <col min="8" max="8" width="39.125" style="257" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="257" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="257" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="258" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="142" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="143" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="144" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.125" style="143" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="143" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="48.625" style="144" customWidth="1"/>
+    <col min="8" max="8" width="39.125" style="144" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="144" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="144" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="145" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
     <col min="13" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="60" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="174" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:22" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="258" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="253" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="258" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="E1" s="258" t="s">
         <v>674</v>
       </c>
-      <c r="F1" s="171" t="s">
+      <c r="F1" s="253" t="s">
         <v>675</v>
       </c>
-      <c r="G1" s="173" t="s">
+      <c r="G1" s="256" t="s">
         <v>676</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="253" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="171" t="s">
+      <c r="I1" s="253" t="s">
         <v>677</v>
       </c>
-      <c r="J1" s="171" t="s">
+      <c r="J1" s="253" t="s">
         <v>678</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171" t="s">
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253" t="s">
         <v>679</v>
       </c>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171" t="s">
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253" t="s">
         <v>680</v>
       </c>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171" t="s">
+      <c r="Q1" s="253"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="253"/>
+      <c r="T1" s="253" t="s">
         <v>681</v>
       </c>
-      <c r="U1" s="171" t="s">
+      <c r="U1" s="253" t="s">
         <v>682</v>
       </c>
-      <c r="V1" s="171" t="s">
+      <c r="V1" s="253" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="174" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
+    <row r="2" spans="1:22" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="253"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
       <c r="J2" s="1" t="s">
         <v>684</v>
       </c>
@@ -10969,2783 +10969,2730 @@
       <c r="S2" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="254" t="s">
         <v>690</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="255" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="249" t="s">
         <v>691</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="248" t="s">
         <v>692</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="248" t="s">
         <v>693</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="248" t="s">
         <v>694</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="250" t="s">
         <v>695</v>
       </c>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="248" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="181" t="s">
+      <c r="I3" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="181" t="s">
+      <c r="J3" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="K3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M3" s="181" t="s">
+      <c r="K3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M3" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="N3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T3" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U3" s="183" t="s">
+      <c r="N3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T3" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U3" s="107" t="s">
         <v>697</v>
       </c>
-      <c r="V3" s="183" t="s">
+      <c r="V3" s="107" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="176"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="181" t="s">
+      <c r="A4" s="254"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="105" t="s">
         <v>699</v>
       </c>
-      <c r="J4" s="181" t="s">
+      <c r="J4" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="K4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M4" s="181" t="s">
+      <c r="K4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M4" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="N4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T4" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U4" s="183" t="s">
+      <c r="N4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T4" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U4" s="107" t="s">
         <v>700</v>
       </c>
-      <c r="V4" s="183"/>
+      <c r="V4" s="107"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="176"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="181" t="s">
+      <c r="A5" s="254"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="105" t="s">
         <v>701</v>
       </c>
-      <c r="J5" s="181" t="s">
+      <c r="J5" s="105" t="s">
         <v>702</v>
       </c>
-      <c r="K5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M5" s="181" t="s">
+      <c r="K5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M5" s="105" t="s">
         <v>702</v>
       </c>
-      <c r="N5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T5" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U5" s="183" t="s">
+      <c r="N5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T5" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U5" s="107" t="s">
         <v>703</v>
       </c>
-      <c r="V5" s="183"/>
+      <c r="V5" s="107"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="176"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="181" t="s">
+      <c r="A6" s="254"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="186" t="s">
-        <v>696</v>
-      </c>
-      <c r="K6" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L6" s="181" t="s">
+      <c r="J6" s="108" t="s">
+        <v>696</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L6" s="105" t="s">
         <v>704</v>
       </c>
-      <c r="M6" s="186" t="s">
-        <v>696</v>
-      </c>
-      <c r="N6" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O6" s="181" t="s">
+      <c r="M6" s="108" t="s">
+        <v>696</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O6" s="105" t="s">
         <v>704</v>
       </c>
-      <c r="P6" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q6" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R6" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S6" s="181" t="s">
+      <c r="P6" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q6" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R6" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S6" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="T6" s="183" t="s">
+      <c r="T6" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="U6" s="183" t="s">
+      <c r="U6" s="107" t="s">
         <v>706</v>
       </c>
-      <c r="V6" s="183"/>
+      <c r="V6" s="107"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="178" t="s">
+      <c r="A7" s="254"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="249" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="179" t="s">
+      <c r="D7" s="248" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="178" t="s">
+      <c r="E7" s="248"/>
+      <c r="F7" s="249" t="s">
         <v>310</v>
       </c>
-      <c r="G7" s="180" t="s">
+      <c r="G7" s="250" t="s">
         <v>707</v>
       </c>
-      <c r="H7" s="178" t="s">
+      <c r="H7" s="249" t="s">
         <v>311</v>
       </c>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="105" t="s">
         <v>312</v>
       </c>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="K7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M7" s="181" t="s">
+      <c r="K7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M7" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="N7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R7" s="181" t="s">
+      <c r="N7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R7" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="S7" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T7" s="183" t="s">
+      <c r="S7" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T7" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="U7" s="183" t="s">
+      <c r="U7" s="107" t="s">
         <v>697</v>
       </c>
-      <c r="V7" s="183" t="s">
+      <c r="V7" s="107" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="181" t="s">
+      <c r="A8" s="254"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="J8" s="181" t="s">
+      <c r="J8" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="K8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M8" s="181" t="s">
+      <c r="K8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M8" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="N8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R8" s="181" t="s">
+      <c r="N8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R8" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="S8" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T8" s="183" t="s">
+      <c r="S8" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T8" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="U8" s="183" t="s">
+      <c r="U8" s="107" t="s">
         <v>700</v>
       </c>
-      <c r="V8" s="183"/>
+      <c r="V8" s="107"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="181" t="s">
+      <c r="A9" s="254"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="K9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M9" s="181" t="s">
+      <c r="K9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M9" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="N9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R9" s="181" t="s">
+      <c r="N9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R9" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="S9" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T9" s="183" t="s">
+      <c r="S9" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T9" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="U9" s="183" t="s">
+      <c r="U9" s="107" t="s">
         <v>700</v>
       </c>
-      <c r="V9" s="183"/>
+      <c r="V9" s="107"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="176"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="181" t="s">
+      <c r="A10" s="254"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="J10" s="181" t="s">
+      <c r="J10" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="K10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M10" s="181" t="s">
+      <c r="K10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M10" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="N10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R10" s="181" t="s">
+      <c r="N10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R10" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="S10" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T10" s="183" t="s">
+      <c r="S10" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T10" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="U10" s="183" t="s">
+      <c r="U10" s="107" t="s">
         <v>703</v>
       </c>
-      <c r="V10" s="183"/>
+      <c r="V10" s="107"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="181" t="s">
+      <c r="A11" s="254"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="J11" s="181" t="s">
+      <c r="J11" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="K11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M11" s="181" t="s">
+      <c r="K11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M11" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="N11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R11" s="181" t="s">
+      <c r="N11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R11" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="S11" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T11" s="183" t="s">
+      <c r="S11" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T11" s="107" t="s">
         <v>705</v>
       </c>
-      <c r="U11" s="183" t="s">
+      <c r="U11" s="107" t="s">
         <v>710</v>
       </c>
-      <c r="V11" s="183"/>
+      <c r="V11" s="107"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="181" t="s">
+      <c r="A12" s="254"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="K12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M12" s="181" t="s">
+      <c r="K12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M12" s="105" t="s">
         <v>708</v>
       </c>
-      <c r="N12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T12" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U12" s="183" t="s">
+      <c r="N12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T12" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U12" s="107" t="s">
         <v>710</v>
       </c>
-      <c r="V12" s="183"/>
+      <c r="V12" s="107"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="176"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="182" t="s">
+      <c r="A13" s="254"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="106" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="187" t="s">
+      <c r="D13" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="188" t="s">
+      <c r="E13" s="110" t="s">
         <v>702</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="107" t="s">
         <v>711</v>
       </c>
-      <c r="G13" s="183" t="s">
+      <c r="G13" s="107" t="s">
         <v>712</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="106" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="182" t="s">
+      <c r="I13" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="182" t="s">
+      <c r="J13" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="K13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M13" s="182" t="s">
+      <c r="K13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M13" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="N13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T13" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U13" s="183" t="s">
+      <c r="N13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T13" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U13" s="107" t="s">
         <v>697</v>
       </c>
-      <c r="V13" s="183"/>
+      <c r="V13" s="107"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="176"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="183" t="s">
+      <c r="A14" s="254"/>
+      <c r="B14" s="255"/>
+      <c r="C14" s="107" t="s">
         <v>713</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="110" t="s">
         <v>702</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="107" t="s">
         <v>714</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="107" t="s">
         <v>715</v>
       </c>
-      <c r="H14" s="183" t="s">
+      <c r="H14" s="107" t="s">
         <v>716</v>
       </c>
-      <c r="I14" s="183" t="s">
+      <c r="I14" s="107" t="s">
         <v>717</v>
       </c>
-      <c r="J14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="K14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L14" s="183" t="s">
+      <c r="J14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="K14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L14" s="107" t="s">
         <v>718</v>
       </c>
-      <c r="M14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="N14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O14" s="183" t="s">
+      <c r="M14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="N14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O14" s="107" t="s">
         <v>718</v>
       </c>
-      <c r="P14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S14" s="181" t="s">
+      <c r="P14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S14" s="105" t="s">
         <v>693</v>
       </c>
-      <c r="T14" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U14" s="183" t="s">
+      <c r="T14" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U14" s="107" t="s">
         <v>718</v>
       </c>
-      <c r="V14" s="183"/>
+      <c r="V14" s="107"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="176"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="189" t="s">
+      <c r="A15" s="254"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="242" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="190" t="s">
+      <c r="D15" s="243" t="s">
         <v>719</v>
       </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="191" t="s">
+      <c r="E15" s="243"/>
+      <c r="F15" s="245" t="s">
         <v>720</v>
       </c>
-      <c r="G15" s="183" t="s">
+      <c r="G15" s="107" t="s">
         <v>557</v>
       </c>
-      <c r="H15" s="189" t="s">
+      <c r="H15" s="242" t="s">
         <v>322</v>
       </c>
-      <c r="I15" s="192" t="s">
+      <c r="I15" s="111" t="s">
         <v>323</v>
       </c>
-      <c r="J15" s="182" t="s">
+      <c r="J15" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="K15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M15" s="182" t="s">
+      <c r="K15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M15" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="N15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T15" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U15" s="183" t="s">
+      <c r="N15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T15" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U15" s="107" t="s">
         <v>697</v>
       </c>
-      <c r="V15" s="183"/>
+      <c r="V15" s="107"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="176"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="183" t="s">
+      <c r="A16" s="254"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="107" t="s">
         <v>556</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="192" t="s">
+      <c r="H16" s="242"/>
+      <c r="I16" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="J16" s="182" t="s">
+      <c r="J16" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="K16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M16" s="182" t="s">
+      <c r="K16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M16" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="N16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T16" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U16" s="183" t="s">
+      <c r="N16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T16" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U16" s="107" t="s">
         <v>700</v>
       </c>
-      <c r="V16" s="183"/>
+      <c r="V16" s="107"/>
     </row>
     <row r="17" spans="1:22" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="176"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="192" t="s">
+      <c r="A17" s="254"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="111" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="110" t="s">
         <v>719</v>
       </c>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188" t="s">
+      <c r="E17" s="110"/>
+      <c r="F17" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="G17" s="183" t="s">
+      <c r="G17" s="107" t="s">
         <v>555</v>
       </c>
-      <c r="H17" s="192" t="s">
+      <c r="H17" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="I17" s="192" t="s">
+      <c r="I17" s="111" t="s">
         <v>327</v>
       </c>
-      <c r="J17" s="182" t="s">
+      <c r="J17" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="K17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="L17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="M17" s="182" t="s">
+      <c r="K17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="L17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="M17" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="N17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="O17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="P17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="R17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="S17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="T17" s="182" t="s">
-        <v>696</v>
-      </c>
-      <c r="U17" s="183" t="s">
+      <c r="N17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="O17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="P17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="R17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="T17" s="106" t="s">
+        <v>696</v>
+      </c>
+      <c r="U17" s="107" t="s">
         <v>697</v>
       </c>
-      <c r="V17" s="183"/>
-    </row>
-    <row r="18" spans="1:22" s="200" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="195" t="s">
+      <c r="V17" s="107"/>
+    </row>
+    <row r="18" spans="1:22" s="117" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="112" t="s">
         <v>722</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="113" t="s">
         <v>723</v>
       </c>
-      <c r="D18" s="197" t="s">
+      <c r="D18" s="114" t="s">
         <v>724</v>
       </c>
-      <c r="E18" s="197"/>
-      <c r="F18" s="198" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="115" t="s">
         <v>725</v>
       </c>
-      <c r="G18" s="198" t="s">
+      <c r="G18" s="115" t="s">
         <v>726</v>
       </c>
-      <c r="H18" s="198" t="s">
+      <c r="H18" s="115" t="s">
         <v>727</v>
       </c>
-      <c r="I18" s="198" t="s">
+      <c r="I18" s="115" t="s">
         <v>723</v>
       </c>
-      <c r="J18" s="199" t="s">
+      <c r="J18" s="116" t="s">
         <v>728</v>
       </c>
-      <c r="K18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="L18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="M18" s="199" t="s">
+      <c r="K18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="L18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="M18" s="116" t="s">
         <v>728</v>
       </c>
-      <c r="N18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="O18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="P18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="R18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="S18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="T18" s="199" t="s">
-        <v>696</v>
-      </c>
-      <c r="U18" s="199" t="s">
+      <c r="N18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="O18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="P18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="R18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="S18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="T18" s="116" t="s">
+        <v>696</v>
+      </c>
+      <c r="U18" s="116" t="s">
         <v>729</v>
       </c>
-      <c r="V18" s="199"/>
+      <c r="V18" s="116"/>
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="247" t="s">
         <v>730</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="203" t="s">
+      <c r="C19" s="241" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="204" t="s">
+      <c r="D19" s="236" t="s">
         <v>330</v>
       </c>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204" t="s">
+      <c r="E19" s="236"/>
+      <c r="F19" s="236" t="s">
         <v>731</v>
       </c>
-      <c r="G19" s="204" t="s">
+      <c r="G19" s="236" t="s">
         <v>558</v>
       </c>
-      <c r="H19" s="203" t="s">
+      <c r="H19" s="241" t="s">
         <v>331</v>
       </c>
-      <c r="I19" s="205" t="s">
+      <c r="I19" s="118" t="s">
         <v>332</v>
       </c>
-      <c r="J19" s="205" t="s">
+      <c r="J19" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M19" s="205" t="s">
+      <c r="K19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M19" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T19" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U19" s="207" t="s">
+      <c r="N19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T19" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U19" s="120" t="s">
         <v>732</v>
       </c>
-      <c r="V19" s="206"/>
+      <c r="V19" s="119"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="201"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="205" t="s">
+      <c r="A20" s="247"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="240"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="J20" s="205" t="s">
+      <c r="J20" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M20" s="205" t="s">
+      <c r="K20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M20" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T20" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U20" s="207" t="s">
+      <c r="N20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T20" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U20" s="120" t="s">
         <v>697</v>
       </c>
-      <c r="V20" s="206"/>
+      <c r="V20" s="119"/>
     </row>
     <row r="21" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="201"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="205" t="s">
+      <c r="A21" s="247"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="239"/>
+      <c r="G21" s="237"/>
+      <c r="H21" s="239"/>
+      <c r="I21" s="118" t="s">
         <v>733</v>
       </c>
-      <c r="J21" s="205" t="s">
+      <c r="J21" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M21" s="205" t="s">
+      <c r="K21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M21" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T21" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U21" s="207" t="s">
+      <c r="N21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T21" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U21" s="120" t="s">
         <v>734</v>
       </c>
-      <c r="V21" s="206"/>
+      <c r="V21" s="119"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="201"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="206" t="s">
+      <c r="A22" s="247"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="119" t="s">
         <v>334</v>
       </c>
-      <c r="D22" s="212" t="s">
+      <c r="D22" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="E22" s="213"/>
-      <c r="F22" s="206" t="s">
+      <c r="E22" s="122"/>
+      <c r="F22" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="G22" s="207" t="s">
+      <c r="G22" s="120" t="s">
         <v>559</v>
       </c>
-      <c r="H22" s="206" t="s">
+      <c r="H22" s="119" t="s">
         <v>337</v>
       </c>
-      <c r="I22" s="206" t="s">
+      <c r="I22" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="J22" s="214" t="s">
+      <c r="J22" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="K22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M22" s="214" t="s">
+      <c r="K22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M22" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="N22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T22" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U22" s="207" t="s">
+      <c r="N22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T22" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U22" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V22" s="206"/>
+      <c r="V22" s="119"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="201"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="205" t="s">
+      <c r="A23" s="247"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="118" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="215" t="s">
+      <c r="D23" s="124" t="s">
         <v>736</v>
       </c>
-      <c r="E23" s="215"/>
-      <c r="F23" s="205" t="s">
+      <c r="E23" s="124"/>
+      <c r="F23" s="118" t="s">
         <v>340</v>
       </c>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205" t="s">
+      <c r="G23" s="118"/>
+      <c r="H23" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="I23" s="205" t="s">
+      <c r="I23" s="118" t="s">
         <v>342</v>
       </c>
-      <c r="J23" s="214" t="s">
+      <c r="J23" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="K23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M23" s="214" t="s">
+      <c r="K23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M23" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="N23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T23" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U23" s="207" t="s">
+      <c r="N23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T23" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U23" s="120" t="s">
         <v>737</v>
       </c>
-      <c r="V23" s="206"/>
+      <c r="V23" s="119"/>
     </row>
     <row r="24" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="201"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="207" t="s">
+      <c r="A24" s="247"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="120" t="s">
         <v>431</v>
       </c>
-      <c r="D24" s="212" t="s">
+      <c r="D24" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="E24" s="213" t="s">
+      <c r="E24" s="122" t="s">
         <v>702</v>
       </c>
-      <c r="F24" s="213" t="s">
+      <c r="F24" s="122" t="s">
         <v>738</v>
       </c>
-      <c r="G24" s="207" t="s">
+      <c r="G24" s="120" t="s">
         <v>739</v>
       </c>
-      <c r="H24" s="206" t="s">
+      <c r="H24" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="I24" s="206" t="s">
+      <c r="I24" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="J24" s="214" t="s">
+      <c r="J24" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="K24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M24" s="214" t="s">
+      <c r="K24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M24" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="N24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T24" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U24" s="207" t="s">
+      <c r="N24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T24" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U24" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V24" s="206"/>
+      <c r="V24" s="119"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="201"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="216" t="s">
+      <c r="A25" s="247"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="230" t="s">
         <v>296</v>
       </c>
-      <c r="D25" s="217" t="s">
+      <c r="D25" s="231" t="s">
         <v>740</v>
       </c>
-      <c r="E25" s="217"/>
-      <c r="F25" s="217" t="s">
+      <c r="E25" s="231"/>
+      <c r="F25" s="231" t="s">
         <v>741</v>
       </c>
-      <c r="G25" s="218" t="s">
+      <c r="G25" s="233" t="s">
         <v>554</v>
       </c>
-      <c r="H25" s="216" t="s">
+      <c r="H25" s="230" t="s">
         <v>297</v>
       </c>
-      <c r="I25" s="206" t="s">
+      <c r="I25" s="119" t="s">
         <v>294</v>
       </c>
-      <c r="J25" s="205" t="s">
+      <c r="J25" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M25" s="205" t="s">
+      <c r="K25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M25" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T25" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U25" s="207" t="s">
+      <c r="N25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T25" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U25" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V25" s="206"/>
+      <c r="V25" s="119"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="201"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="206" t="s">
+      <c r="A26" s="247"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="J26" s="205" t="s">
+      <c r="J26" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M26" s="205" t="s">
+      <c r="K26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M26" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T26" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U26" s="207" t="s">
+      <c r="N26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T26" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U26" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V26" s="206"/>
+      <c r="V26" s="119"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="201"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="207" t="s">
+      <c r="A27" s="247"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="120" t="s">
         <v>742</v>
       </c>
-      <c r="D27" s="212" t="s">
+      <c r="D27" s="121" t="s">
         <v>346</v>
       </c>
-      <c r="E27" s="213" t="s">
+      <c r="E27" s="122" t="s">
         <v>702</v>
       </c>
-      <c r="F27" s="206" t="s">
+      <c r="F27" s="119" t="s">
         <v>743</v>
       </c>
-      <c r="G27" s="207" t="s">
+      <c r="G27" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="H27" s="206" t="s">
+      <c r="H27" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="I27" s="206" t="s">
+      <c r="I27" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="214" t="s">
+      <c r="J27" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="K27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M27" s="214" t="s">
+      <c r="K27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M27" s="123" t="s">
         <v>693</v>
       </c>
-      <c r="N27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T27" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U27" s="207" t="s">
+      <c r="N27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T27" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U27" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V27" s="206"/>
+      <c r="V27" s="119"/>
     </row>
     <row r="28" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="201"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="207" t="s">
+      <c r="A28" s="247"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="120" t="s">
         <v>744</v>
       </c>
-      <c r="D28" s="215" t="s">
+      <c r="D28" s="124" t="s">
         <v>343</v>
       </c>
-      <c r="E28" s="215"/>
-      <c r="F28" s="207" t="s">
+      <c r="E28" s="124"/>
+      <c r="F28" s="120" t="s">
         <v>745</v>
       </c>
-      <c r="G28" s="213" t="s">
+      <c r="G28" s="122" t="s">
         <v>746</v>
       </c>
-      <c r="H28" s="206" t="s">
+      <c r="H28" s="119" t="s">
         <v>348</v>
       </c>
-      <c r="I28" s="207" t="s">
+      <c r="I28" s="120" t="s">
         <v>747</v>
       </c>
-      <c r="J28" s="207" t="s">
+      <c r="J28" s="120" t="s">
         <v>702</v>
       </c>
-      <c r="K28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M28" s="207" t="s">
+      <c r="K28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M28" s="120" t="s">
         <v>702</v>
       </c>
-      <c r="N28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T28" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U28" s="207" t="s">
+      <c r="N28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T28" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U28" s="120" t="s">
         <v>748</v>
       </c>
-      <c r="V28" s="206"/>
+      <c r="V28" s="119"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="201"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="220" t="s">
+      <c r="A29" s="247"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="235" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="217" t="s">
+      <c r="D29" s="231" t="s">
         <v>740</v>
       </c>
-      <c r="E29" s="217"/>
-      <c r="F29" s="221" t="s">
+      <c r="E29" s="231"/>
+      <c r="F29" s="229" t="s">
         <v>749</v>
       </c>
-      <c r="G29" s="204" t="s">
+      <c r="G29" s="236" t="s">
         <v>750</v>
       </c>
-      <c r="H29" s="220" t="s">
+      <c r="H29" s="235" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="215" t="s">
+      <c r="I29" s="124" t="s">
         <v>300</v>
       </c>
-      <c r="J29" s="205" t="s">
+      <c r="J29" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M29" s="205" t="s">
+      <c r="K29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M29" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T29" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U29" s="207" t="s">
+      <c r="N29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T29" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U29" s="120" t="s">
         <v>751</v>
       </c>
-      <c r="V29" s="206"/>
+      <c r="V29" s="119"/>
     </row>
     <row r="30" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="201"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="215" t="s">
+      <c r="A30" s="247"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="124" t="s">
         <v>301</v>
       </c>
-      <c r="J30" s="205" t="s">
+      <c r="J30" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M30" s="205" t="s">
+      <c r="K30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M30" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T30" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U30" s="207" t="s">
+      <c r="N30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T30" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U30" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V30" s="206"/>
+      <c r="V30" s="119"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="201"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="220" t="s">
+      <c r="A31" s="247"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="235" t="s">
         <v>752</v>
       </c>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221" t="s">
+      <c r="D31" s="229"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="229" t="s">
         <v>753</v>
       </c>
-      <c r="G31" s="204" t="s">
+      <c r="G31" s="236" t="s">
         <v>625</v>
       </c>
-      <c r="H31" s="221" t="s">
+      <c r="H31" s="229" t="s">
         <v>302</v>
       </c>
-      <c r="I31" s="205" t="s">
+      <c r="I31" s="118" t="s">
         <v>754</v>
       </c>
-      <c r="J31" s="205" t="s">
+      <c r="J31" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M31" s="205" t="s">
+      <c r="K31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M31" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T31" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U31" s="207" t="s">
+      <c r="N31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T31" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U31" s="120" t="s">
         <v>751</v>
       </c>
-      <c r="V31" s="206"/>
+      <c r="V31" s="119"/>
     </row>
     <row r="32" spans="1:22" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="201"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="205" t="s">
+      <c r="A32" s="247"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="118" t="s">
         <v>303</v>
       </c>
-      <c r="J32" s="205" t="s">
+      <c r="J32" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M32" s="205" t="s">
+      <c r="K32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M32" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T32" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U32" s="207" t="s">
+      <c r="N32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T32" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U32" s="120" t="s">
         <v>751</v>
       </c>
-      <c r="V32" s="206"/>
+      <c r="V32" s="119"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="201"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="216" t="s">
+      <c r="A33" s="247"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="D33" s="217" t="s">
+      <c r="D33" s="231" t="s">
         <v>740</v>
       </c>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217" t="s">
+      <c r="E33" s="231"/>
+      <c r="F33" s="231" t="s">
         <v>741</v>
       </c>
-      <c r="G33" s="218" t="s">
+      <c r="G33" s="233" t="s">
         <v>554</v>
       </c>
-      <c r="H33" s="216" t="s">
+      <c r="H33" s="230" t="s">
         <v>293</v>
       </c>
-      <c r="I33" s="206" t="s">
+      <c r="I33" s="119" t="s">
         <v>294</v>
       </c>
-      <c r="J33" s="205" t="s">
+      <c r="J33" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M33" s="205" t="s">
+      <c r="K33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M33" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T33" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U33" s="207" t="s">
+      <c r="N33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T33" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U33" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V33" s="206"/>
+      <c r="V33" s="119"/>
     </row>
     <row r="34" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="201"/>
-      <c r="B34" s="212"/>
-      <c r="C34" s="216"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="206" t="s">
+      <c r="A34" s="247"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="234"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="J34" s="205" t="s">
+      <c r="J34" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="K34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="L34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="M34" s="205" t="s">
+      <c r="K34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="L34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="M34" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="N34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="O34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="P34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="R34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="S34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="T34" s="206" t="s">
-        <v>696</v>
-      </c>
-      <c r="U34" s="207" t="s">
+      <c r="N34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="O34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="P34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="R34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="S34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="T34" s="119" t="s">
+        <v>696</v>
+      </c>
+      <c r="U34" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="V34" s="206"/>
+      <c r="V34" s="119"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="222" t="s">
+      <c r="A35" s="225" t="s">
         <v>755</v>
       </c>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="226" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="224" t="s">
+      <c r="C35" s="213" t="s">
         <v>756</v>
       </c>
-      <c r="D35" s="225" t="s">
+      <c r="D35" s="227" t="s">
         <v>757</v>
       </c>
-      <c r="E35" s="226"/>
-      <c r="F35" s="224" t="s">
+      <c r="E35" s="228"/>
+      <c r="F35" s="213" t="s">
         <v>758</v>
       </c>
-      <c r="G35" s="227" t="s">
+      <c r="G35" s="125" t="s">
         <v>552</v>
       </c>
-      <c r="H35" s="224" t="s">
+      <c r="H35" s="213" t="s">
         <v>277</v>
       </c>
-      <c r="I35" s="227" t="s">
+      <c r="I35" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="J35" s="227" t="s">
+      <c r="J35" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="K35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="L35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="M35" s="227" t="s">
+      <c r="K35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="L35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="M35" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="N35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="O35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="P35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="R35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="S35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="T35" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="U35" s="228" t="s">
+      <c r="N35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="O35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="P35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="R35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="S35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="T35" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="U35" s="126" t="s">
         <v>759</v>
       </c>
-      <c r="V35" s="228"/>
+      <c r="V35" s="126"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="222"/>
-      <c r="B36" s="223"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="227" t="s">
+      <c r="A36" s="225"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="213"/>
+      <c r="G36" s="125" t="s">
         <v>760</v>
       </c>
-      <c r="H36" s="224"/>
-      <c r="I36" s="227" t="s">
+      <c r="H36" s="213"/>
+      <c r="I36" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="J36" s="227" t="s">
+      <c r="J36" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="K36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="L36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="M36" s="227" t="s">
+      <c r="K36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="L36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="M36" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="N36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="O36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="P36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="R36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="S36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="T36" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="U36" s="228" t="s">
+      <c r="N36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="O36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="P36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="R36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="S36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="T36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="U36" s="126" t="s">
         <v>759</v>
       </c>
-      <c r="V36" s="228"/>
+      <c r="V36" s="126"/>
     </row>
     <row r="37" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="222"/>
-      <c r="B37" s="223"/>
-      <c r="C37" s="228" t="s">
+      <c r="A37" s="225"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="126" t="s">
         <v>761</v>
       </c>
-      <c r="D37" s="229" t="s">
+      <c r="D37" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="E37" s="230"/>
-      <c r="F37" s="228" t="s">
+      <c r="E37" s="128"/>
+      <c r="F37" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="G37" s="230" t="s">
+      <c r="G37" s="128" t="s">
         <v>762</v>
       </c>
-      <c r="H37" s="228" t="s">
+      <c r="H37" s="126" t="s">
         <v>283</v>
       </c>
-      <c r="I37" s="228" t="s">
+      <c r="I37" s="126" t="s">
         <v>280</v>
       </c>
-      <c r="J37" s="227" t="s">
+      <c r="J37" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="K37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="L37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="M37" s="227" t="s">
+      <c r="K37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="L37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="M37" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="N37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="O37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="P37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="R37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="S37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="T37" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="U37" s="231" t="s">
+      <c r="N37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="O37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="P37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="R37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="S37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="T37" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="U37" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="V37" s="228"/>
+      <c r="V37" s="126"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="222"/>
-      <c r="B38" s="223"/>
-      <c r="C38" s="227" t="s">
+      <c r="A38" s="225"/>
+      <c r="B38" s="226"/>
+      <c r="C38" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="232" t="s">
+      <c r="D38" s="130" t="s">
         <v>284</v>
       </c>
-      <c r="E38" s="232"/>
-      <c r="F38" s="227" t="s">
+      <c r="E38" s="130"/>
+      <c r="F38" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="G38" s="227" t="s">
+      <c r="G38" s="125" t="s">
         <v>553</v>
       </c>
-      <c r="H38" s="227" t="s">
+      <c r="H38" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="I38" s="227" t="s">
+      <c r="I38" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="J38" s="227" t="s">
+      <c r="J38" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="K38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="L38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="M38" s="227" t="s">
+      <c r="K38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="L38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="M38" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="N38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="O38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="P38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="R38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="S38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="T38" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="U38" s="228" t="s">
+      <c r="N38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="O38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="P38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="R38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="S38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="T38" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="U38" s="126" t="s">
         <v>764</v>
       </c>
-      <c r="V38" s="228"/>
+      <c r="V38" s="126"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="222"/>
-      <c r="B39" s="223"/>
-      <c r="C39" s="227" t="s">
+      <c r="A39" s="225"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="125" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="232" t="s">
+      <c r="D39" s="130" t="s">
         <v>765</v>
       </c>
-      <c r="E39" s="232"/>
-      <c r="F39" s="227" t="s">
+      <c r="E39" s="130"/>
+      <c r="F39" s="125" t="s">
         <v>289</v>
       </c>
-      <c r="G39" s="227" t="s">
+      <c r="G39" s="125" t="s">
         <v>553</v>
       </c>
-      <c r="H39" s="227" t="s">
+      <c r="H39" s="125" t="s">
         <v>290</v>
       </c>
-      <c r="I39" s="227" t="s">
+      <c r="I39" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="J39" s="227" t="s">
+      <c r="J39" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="K39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="L39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="M39" s="227" t="s">
+      <c r="K39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="L39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="M39" s="125" t="s">
         <v>693</v>
       </c>
-      <c r="N39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="O39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="P39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="R39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="S39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="T39" s="228" t="s">
-        <v>696</v>
-      </c>
-      <c r="U39" s="228" t="s">
+      <c r="N39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="O39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="P39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="R39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="S39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="T39" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="U39" s="126" t="s">
         <v>764</v>
       </c>
-      <c r="V39" s="228"/>
+      <c r="V39" s="126"/>
     </row>
     <row r="40" spans="1:22" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="214" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="234" t="s">
+      <c r="B40" s="215" t="s">
         <v>767</v>
       </c>
-      <c r="C40" s="235" t="s">
+      <c r="C40" s="131" t="s">
         <v>349</v>
       </c>
-      <c r="D40" s="236" t="s">
+      <c r="D40" s="132" t="s">
         <v>768</v>
       </c>
-      <c r="E40" s="237"/>
-      <c r="F40" s="235" t="s">
+      <c r="E40" s="133"/>
+      <c r="F40" s="131" t="s">
         <v>350</v>
       </c>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235" t="s">
+      <c r="G40" s="131"/>
+      <c r="H40" s="131" t="s">
         <v>351</v>
       </c>
-      <c r="I40" s="235" t="s">
+      <c r="I40" s="131" t="s">
         <v>352</v>
       </c>
-      <c r="J40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="K40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="L40" s="238" t="s">
+      <c r="J40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="K40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="L40" s="134" t="s">
         <v>769</v>
       </c>
-      <c r="M40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="N40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="O40" s="238" t="s">
+      <c r="M40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="N40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="O40" s="134" t="s">
         <v>769</v>
       </c>
-      <c r="P40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R40" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S40" s="239" t="s">
+      <c r="P40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R40" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S40" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T40" s="238" t="s">
+      <c r="T40" s="134" t="s">
         <v>705</v>
       </c>
-      <c r="U40" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V40" s="238"/>
+      <c r="U40" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V40" s="134"/>
     </row>
     <row r="41" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="233"/>
-      <c r="B41" s="234"/>
-      <c r="C41" s="235" t="s">
+      <c r="A41" s="214"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="131" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="237" t="s">
+      <c r="D41" s="133" t="s">
         <v>740</v>
       </c>
-      <c r="E41" s="237"/>
-      <c r="F41" s="235" t="s">
+      <c r="E41" s="133"/>
+      <c r="F41" s="131" t="s">
         <v>354</v>
       </c>
-      <c r="G41" s="235"/>
-      <c r="H41" s="235" t="s">
+      <c r="G41" s="131"/>
+      <c r="H41" s="131" t="s">
         <v>355</v>
       </c>
-      <c r="I41" s="235" t="s">
+      <c r="I41" s="131" t="s">
         <v>356</v>
       </c>
-      <c r="J41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="K41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="L41" s="238" t="s">
+      <c r="J41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="K41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="L41" s="134" t="s">
         <v>769</v>
       </c>
-      <c r="M41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="N41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="O41" s="238" t="s">
+      <c r="M41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="N41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="O41" s="134" t="s">
         <v>769</v>
       </c>
-      <c r="P41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R41" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S41" s="239" t="s">
+      <c r="P41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R41" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S41" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T41" s="238" t="s">
+      <c r="T41" s="134" t="s">
         <v>705</v>
       </c>
-      <c r="U41" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V41" s="238"/>
+      <c r="U41" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V41" s="134"/>
     </row>
     <row r="42" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="233"/>
-      <c r="B42" s="234"/>
-      <c r="C42" s="235" t="s">
+      <c r="A42" s="214"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="131" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="237" t="s">
+      <c r="D42" s="133" t="s">
         <v>770</v>
       </c>
-      <c r="E42" s="237"/>
-      <c r="F42" s="235" t="s">
+      <c r="E42" s="133"/>
+      <c r="F42" s="131" t="s">
         <v>359</v>
       </c>
-      <c r="G42" s="238" t="s">
+      <c r="G42" s="134" t="s">
         <v>771</v>
       </c>
-      <c r="H42" s="235" t="s">
+      <c r="H42" s="131" t="s">
         <v>360</v>
       </c>
-      <c r="I42" s="235" t="s">
+      <c r="I42" s="131" t="s">
         <v>361</v>
       </c>
-      <c r="J42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="K42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="L42" s="238" t="s">
+      <c r="J42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="K42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="L42" s="134" t="s">
         <v>769</v>
       </c>
-      <c r="M42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="N42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="O42" s="238" t="s">
+      <c r="M42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="N42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="O42" s="134" t="s">
         <v>769</v>
       </c>
-      <c r="P42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R42" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S42" s="239" t="s">
+      <c r="P42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R42" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S42" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T42" s="238" t="s">
+      <c r="T42" s="134" t="s">
         <v>705</v>
       </c>
-      <c r="U42" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V42" s="238"/>
+      <c r="U42" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V42" s="134"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="233"/>
-      <c r="B43" s="234"/>
-      <c r="C43" s="240" t="s">
+      <c r="A43" s="214"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="136" t="s">
         <v>772</v>
       </c>
-      <c r="D43" s="237" t="s">
+      <c r="D43" s="133" t="s">
         <v>692</v>
       </c>
-      <c r="E43" s="237" t="s">
+      <c r="E43" s="133" t="s">
         <v>702</v>
       </c>
-      <c r="F43" s="240" t="s">
+      <c r="F43" s="136" t="s">
         <v>773</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="238" t="s">
+      <c r="G43" s="136"/>
+      <c r="H43" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="I43" s="238" t="s">
+      <c r="I43" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="J43" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="K43" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L43" s="238" t="s">
+      <c r="J43" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="K43" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L43" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="M43" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="N43" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O43" s="238" t="s">
+      <c r="M43" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="N43" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O43" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="P43" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q43" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R43" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S43" s="239" t="s">
+      <c r="P43" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q43" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R43" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S43" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T43" s="241"/>
-      <c r="U43" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V43" s="238"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V43" s="134"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="233"/>
-      <c r="B44" s="234"/>
-      <c r="C44" s="240" t="s">
+      <c r="A44" s="214"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="136" t="s">
         <v>774</v>
       </c>
-      <c r="D44" s="237" t="s">
+      <c r="D44" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="E44" s="237" t="s">
+      <c r="E44" s="133" t="s">
         <v>702</v>
       </c>
-      <c r="F44" s="240" t="s">
+      <c r="F44" s="136" t="s">
         <v>775</v>
       </c>
-      <c r="G44" s="240"/>
-      <c r="H44" s="238" t="s">
+      <c r="G44" s="136"/>
+      <c r="H44" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="I44" s="238" t="s">
+      <c r="I44" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="J44" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="K44" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L44" s="238" t="s">
+      <c r="J44" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="K44" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L44" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="M44" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="N44" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O44" s="238" t="s">
+      <c r="M44" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="N44" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O44" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="P44" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q44" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R44" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S44" s="239" t="s">
+      <c r="P44" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q44" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R44" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S44" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T44" s="241"/>
-      <c r="U44" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V44" s="238"/>
+      <c r="T44" s="137"/>
+      <c r="U44" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V44" s="134"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="233"/>
-      <c r="B45" s="234"/>
-      <c r="C45" s="240" t="s">
+      <c r="A45" s="214"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="136" t="s">
         <v>776</v>
       </c>
-      <c r="D45" s="237" t="s">
+      <c r="D45" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="E45" s="237" t="s">
+      <c r="E45" s="133" t="s">
         <v>702</v>
       </c>
-      <c r="F45" s="240" t="s">
+      <c r="F45" s="136" t="s">
         <v>777</v>
       </c>
-      <c r="G45" s="240"/>
-      <c r="H45" s="238" t="s">
+      <c r="G45" s="136"/>
+      <c r="H45" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="I45" s="238" t="s">
+      <c r="I45" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="J45" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="K45" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L45" s="238" t="s">
+      <c r="J45" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="K45" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L45" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="M45" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="N45" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O45" s="238" t="s">
+      <c r="M45" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="N45" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O45" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="P45" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q45" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R45" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S45" s="239" t="s">
+      <c r="P45" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q45" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R45" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S45" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T45" s="241"/>
-      <c r="U45" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V45" s="238"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V45" s="134"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="233"/>
-      <c r="B46" s="234"/>
-      <c r="C46" s="240" t="s">
+      <c r="A46" s="214"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="136" t="s">
         <v>778</v>
       </c>
-      <c r="D46" s="237" t="s">
+      <c r="D46" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="E46" s="237" t="s">
+      <c r="E46" s="133" t="s">
         <v>702</v>
       </c>
-      <c r="F46" s="240" t="s">
+      <c r="F46" s="136" t="s">
         <v>779</v>
       </c>
-      <c r="G46" s="240"/>
-      <c r="H46" s="238" t="s">
+      <c r="G46" s="136"/>
+      <c r="H46" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="I46" s="238" t="s">
+      <c r="I46" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="J46" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="K46" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L46" s="238" t="s">
+      <c r="J46" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="K46" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L46" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="M46" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="N46" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O46" s="238" t="s">
+      <c r="M46" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="N46" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O46" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="P46" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q46" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R46" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S46" s="239" t="s">
+      <c r="P46" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q46" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R46" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S46" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T46" s="241"/>
-      <c r="U46" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V46" s="238"/>
+      <c r="T46" s="137"/>
+      <c r="U46" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V46" s="134"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="233"/>
-      <c r="B47" s="234"/>
-      <c r="C47" s="240" t="s">
+      <c r="A47" s="214"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="136" t="s">
         <v>780</v>
       </c>
-      <c r="D47" s="237" t="s">
+      <c r="D47" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="E47" s="237" t="s">
+      <c r="E47" s="133" t="s">
         <v>702</v>
       </c>
-      <c r="F47" s="242" t="s">
+      <c r="F47" s="138" t="s">
         <v>781</v>
       </c>
-      <c r="G47" s="242"/>
-      <c r="H47" s="238" t="s">
+      <c r="G47" s="138"/>
+      <c r="H47" s="134" t="s">
         <v>782</v>
       </c>
-      <c r="I47" s="238" t="s">
+      <c r="I47" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="J47" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="K47" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L47" s="238" t="s">
+      <c r="J47" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="K47" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L47" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="M47" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="N47" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O47" s="238" t="s">
+      <c r="M47" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="N47" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O47" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="P47" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q47" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R47" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S47" s="239" t="s">
+      <c r="P47" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q47" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R47" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S47" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T47" s="241"/>
-      <c r="U47" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V47" s="238"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V47" s="134"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="233"/>
-      <c r="B48" s="234"/>
-      <c r="C48" s="243" t="s">
+      <c r="A48" s="214"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="216" t="s">
         <v>783</v>
       </c>
-      <c r="D48" s="244" t="s">
+      <c r="D48" s="219" t="s">
         <v>784</v>
       </c>
-      <c r="E48" s="244" t="s">
+      <c r="E48" s="219" t="s">
         <v>702</v>
       </c>
-      <c r="F48" s="243" t="s">
+      <c r="F48" s="216" t="s">
         <v>785</v>
       </c>
-      <c r="G48" s="245" t="s">
+      <c r="G48" s="139" t="s">
         <v>783</v>
       </c>
-      <c r="H48" s="246" t="s">
+      <c r="H48" s="222" t="s">
         <v>786</v>
       </c>
-      <c r="I48" s="238" t="s">
+      <c r="I48" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J48" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="K48" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L48" s="238" t="s">
+      <c r="J48" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="K48" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L48" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="M48" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="N48" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O48" s="238" t="s">
+      <c r="M48" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="N48" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O48" s="134" t="s">
         <v>704</v>
       </c>
-      <c r="P48" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q48" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R48" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S48" s="239" t="s">
+      <c r="P48" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q48" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R48" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S48" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="T48" s="241"/>
-      <c r="U48" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V48" s="238"/>
+      <c r="T48" s="137"/>
+      <c r="U48" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V48" s="134"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="233"/>
-      <c r="B49" s="234"/>
-      <c r="C49" s="247"/>
-      <c r="D49" s="248"/>
-      <c r="E49" s="248"/>
-      <c r="F49" s="247"/>
-      <c r="G49" s="249"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="238" t="s">
+      <c r="A49" s="214"/>
+      <c r="B49" s="215"/>
+      <c r="C49" s="217"/>
+      <c r="D49" s="220"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="134" t="s">
         <v>788</v>
       </c>
-      <c r="J49" s="239" t="s">
+      <c r="J49" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="K49" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L49" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="M49" s="239" t="s">
+      <c r="K49" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L49" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="M49" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="N49" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O49" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="P49" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q49" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R49" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S49" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="T49" s="241"/>
-      <c r="U49" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V49" s="238"/>
+      <c r="N49" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O49" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="P49" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q49" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R49" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S49" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="T49" s="137"/>
+      <c r="U49" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V49" s="134"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="233"/>
-      <c r="B50" s="234"/>
-      <c r="C50" s="251"/>
-      <c r="D50" s="252"/>
-      <c r="E50" s="252"/>
-      <c r="F50" s="251"/>
-      <c r="G50" s="253"/>
-      <c r="H50" s="254"/>
-      <c r="I50" s="238" t="s">
+      <c r="A50" s="214"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="221"/>
+      <c r="E50" s="221"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="224"/>
+      <c r="I50" s="134" t="s">
         <v>789</v>
       </c>
-      <c r="J50" s="239" t="s">
+      <c r="J50" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="K50" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="L50" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="M50" s="239" t="s">
+      <c r="K50" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="L50" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="M50" s="135" t="s">
         <v>693</v>
       </c>
-      <c r="N50" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="O50" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="P50" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q50" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="R50" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="S50" s="235" t="s">
-        <v>696</v>
-      </c>
-      <c r="T50" s="241"/>
-      <c r="U50" s="238" t="s">
-        <v>696</v>
-      </c>
-      <c r="V50" s="238"/>
+      <c r="N50" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="O50" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="P50" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q50" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="R50" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="S50" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="T50" s="137"/>
+      <c r="U50" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="V50" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -13762,12 +13709,65 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
